--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -521,11 +521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1596509280"/>
-        <c:axId val="1596509824"/>
+        <c:axId val="-786562832"/>
+        <c:axId val="-786560656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1596509280"/>
+        <c:axId val="-786562832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +568,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1596509824"/>
+        <c:crossAx val="-786560656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -576,7 +576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1596509824"/>
+        <c:axId val="-786560656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,7 +696,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1596509280"/>
+        <c:crossAx val="-786562832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -930,11 +930,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1681379792"/>
-        <c:axId val="1681386320"/>
+        <c:axId val="-786554128"/>
+        <c:axId val="-786556304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1681379792"/>
+        <c:axId val="-786554128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -977,7 +977,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681386320"/>
+        <c:crossAx val="-786556304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681386320"/>
+        <c:axId val="-786556304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1104,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681379792"/>
+        <c:crossAx val="-786554128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1417,11 +1417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1681386864"/>
-        <c:axId val="1681387408"/>
+        <c:axId val="-786554672"/>
+        <c:axId val="-786565552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681386864"/>
+        <c:axId val="-786554672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1464,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681387408"/>
+        <c:crossAx val="-786565552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1472,7 +1472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681387408"/>
+        <c:axId val="-786565552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681386864"/>
+        <c:crossAx val="-786554672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1913,11 +1913,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1681392304"/>
-        <c:axId val="1681380336"/>
+        <c:axId val="-786561744"/>
+        <c:axId val="-786564464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681392304"/>
+        <c:axId val="-786561744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +1960,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681380336"/>
+        <c:crossAx val="-786564464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1968,7 +1968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681380336"/>
+        <c:axId val="-786564464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2088,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681392304"/>
+        <c:crossAx val="-786561744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2409,11 +2409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1681393392"/>
-        <c:axId val="1681381424"/>
+        <c:axId val="-786563920"/>
+        <c:axId val="-786558480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1681393392"/>
+        <c:axId val="-786563920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2456,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681381424"/>
+        <c:crossAx val="-786558480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2464,7 +2464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1681381424"/>
+        <c:axId val="-786558480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,7 +2515,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681393392"/>
+        <c:crossAx val="-786563920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5732,8 +5732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="別役データ" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>別役データ</t>
     <rPh sb="0" eb="2">
@@ -326,6 +326,74 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>メモ：記述内容をあまり理解できないままテンプレートファイルを作成し続けた例。</t>
+    <rPh sb="3" eb="5">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートファイル作成の難易度が上がれば上がるほど、作成時間とミスが増える傾向にあった。</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>サクセイジカン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUITool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動(Heat)</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問回数</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -673,11 +741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-305034240"/>
-        <c:axId val="-305026624"/>
+        <c:axId val="114685376"/>
+        <c:axId val="114679936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-305034240"/>
+        <c:axId val="114685376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,7 +788,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305026624"/>
+        <c:crossAx val="114679936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -728,7 +796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-305026624"/>
+        <c:axId val="114679936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +916,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305034240"/>
+        <c:crossAx val="114685376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1174,11 +1242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-42498976"/>
-        <c:axId val="-42498432"/>
+        <c:axId val="329847184"/>
+        <c:axId val="329834672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-42498976"/>
+        <c:axId val="329847184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1289,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42498432"/>
+        <c:crossAx val="329834672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1229,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-42498432"/>
+        <c:axId val="329834672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1404,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42498976"/>
+        <c:crossAx val="329847184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1682,11 +1750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87343088"/>
-        <c:axId val="87342544"/>
+        <c:axId val="329836848"/>
+        <c:axId val="330684992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87343088"/>
+        <c:axId val="329836848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1797,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87342544"/>
+        <c:crossAx val="330684992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1737,7 +1805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87342544"/>
+        <c:axId val="330684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1921,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87343088"/>
+        <c:crossAx val="329836848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2075,11 +2143,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="87328944"/>
-        <c:axId val="87336016"/>
+        <c:axId val="330680640"/>
+        <c:axId val="330682816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87328944"/>
+        <c:axId val="330680640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2190,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87336016"/>
+        <c:crossAx val="330682816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2130,7 +2198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87336016"/>
+        <c:axId val="330682816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2305,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87328944"/>
+        <c:crossAx val="330680640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2526,11 +2594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87336560"/>
-        <c:axId val="87337104"/>
+        <c:axId val="330686624"/>
+        <c:axId val="330681728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87336560"/>
+        <c:axId val="330686624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2641,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87337104"/>
+        <c:crossAx val="330681728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2581,7 +2649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87337104"/>
+        <c:axId val="330681728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2756,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87336560"/>
+        <c:crossAx val="330686624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2924,6 +2992,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2996,6 +3079,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3011,11 +3109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87335472"/>
-        <c:axId val="87337648"/>
+        <c:axId val="330690976"/>
+        <c:axId val="330689888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87335472"/>
+        <c:axId val="330690976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,7 +3156,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87337648"/>
+        <c:crossAx val="330689888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3066,7 +3164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87337648"/>
+        <c:axId val="330689888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3173,7 +3271,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87335472"/>
+        <c:crossAx val="330690976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3400,6 +3498,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3466,6 +3573,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3481,11 +3597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87340368"/>
-        <c:axId val="87340912"/>
+        <c:axId val="330687712"/>
+        <c:axId val="330688256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87340368"/>
+        <c:axId val="330687712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,7 +3644,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87340912"/>
+        <c:crossAx val="330688256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3536,7 +3652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87340912"/>
+        <c:axId val="330688256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3759,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87340368"/>
+        <c:crossAx val="330687712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3959,11 +4075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93734304"/>
-        <c:axId val="93729952"/>
+        <c:axId val="330682272"/>
+        <c:axId val="330693152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93734304"/>
+        <c:axId val="330682272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4122,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93729952"/>
+        <c:crossAx val="330693152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4014,7 +4130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93729952"/>
+        <c:axId val="330693152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,7 +4246,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93734304"/>
+        <c:crossAx val="330682272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4346,11 +4462,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="93742464"/>
-        <c:axId val="93731040"/>
+        <c:axId val="330694240"/>
+        <c:axId val="330693696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93742464"/>
+        <c:axId val="330694240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,7 +4509,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93731040"/>
+        <c:crossAx val="330693696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4401,7 +4517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93731040"/>
+        <c:axId val="330693696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,7 +4624,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93742464"/>
+        <c:crossAx val="330694240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4779,11 +4895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93740288"/>
-        <c:axId val="93739744"/>
+        <c:axId val="330683360"/>
+        <c:axId val="330683904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93740288"/>
+        <c:axId val="330683360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4826,7 +4942,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93739744"/>
+        <c:crossAx val="330683904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4834,7 +4950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93739744"/>
+        <c:axId val="330683904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4941,7 +5057,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93740288"/>
+        <c:crossAx val="330683360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5264,11 +5380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93735936"/>
-        <c:axId val="93739200"/>
+        <c:axId val="331499280"/>
+        <c:axId val="331499824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93735936"/>
+        <c:axId val="331499280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5311,7 +5427,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93739200"/>
+        <c:crossAx val="331499824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5319,7 +5435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93739200"/>
+        <c:axId val="331499824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5426,7 +5542,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93735936"/>
+        <c:crossAx val="331499280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5660,11 +5776,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-305039680"/>
-        <c:axId val="-305032064"/>
+        <c:axId val="114679392"/>
+        <c:axId val="114674496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-305039680"/>
+        <c:axId val="114679392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5707,7 +5823,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305032064"/>
+        <c:crossAx val="114674496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5715,7 +5831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-305032064"/>
+        <c:axId val="114674496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5834,7 +5950,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305039680"/>
+        <c:crossAx val="114679392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6110,11 +6226,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93737568"/>
-        <c:axId val="93734848"/>
+        <c:axId val="331493840"/>
+        <c:axId val="331503632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93737568"/>
+        <c:axId val="331493840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6157,7 +6273,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93734848"/>
+        <c:crossAx val="331503632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6165,7 +6281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93734848"/>
+        <c:axId val="331503632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6272,7 +6388,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93737568"/>
+        <c:crossAx val="331493840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6588,11 +6704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87341456"/>
-        <c:axId val="87343632"/>
+        <c:axId val="331500912"/>
+        <c:axId val="331493296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87341456"/>
+        <c:axId val="331500912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +6751,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87343632"/>
+        <c:crossAx val="331493296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6643,7 +6759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87343632"/>
+        <c:axId val="331493296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6759,7 +6875,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87341456"/>
+        <c:crossAx val="331500912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6975,11 +7091,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="87331664"/>
-        <c:axId val="87332208"/>
+        <c:axId val="331489488"/>
+        <c:axId val="331494928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87331664"/>
+        <c:axId val="331489488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7022,7 +7138,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87332208"/>
+        <c:crossAx val="331494928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7030,7 +7146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87332208"/>
+        <c:axId val="331494928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7137,7 +7253,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87331664"/>
+        <c:crossAx val="331489488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7408,11 +7524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-42501152"/>
-        <c:axId val="101231472"/>
+        <c:axId val="331498192"/>
+        <c:axId val="331491120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-42501152"/>
+        <c:axId val="331498192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7455,7 +7571,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101231472"/>
+        <c:crossAx val="331491120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7463,7 +7579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101231472"/>
+        <c:axId val="331491120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7570,7 +7686,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42501152"/>
+        <c:crossAx val="331498192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7893,11 +8009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101235280"/>
-        <c:axId val="101226576"/>
+        <c:axId val="331497104"/>
+        <c:axId val="331498736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101235280"/>
+        <c:axId val="331497104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7940,7 +8056,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101226576"/>
+        <c:crossAx val="331498736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7948,7 +8064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101226576"/>
+        <c:axId val="331498736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8055,7 +8171,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101235280"/>
+        <c:crossAx val="331497104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8363,11 +8479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101229840"/>
-        <c:axId val="101224944"/>
+        <c:axId val="331502000"/>
+        <c:axId val="331503088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101229840"/>
+        <c:axId val="331502000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8410,7 +8526,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101224944"/>
+        <c:crossAx val="331503088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8418,7 +8534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101224944"/>
+        <c:axId val="331503088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8525,7 +8641,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101229840"/>
+        <c:crossAx val="331502000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8884,11 +9000,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-305039136"/>
-        <c:axId val="-305033152"/>
+        <c:axId val="114675040"/>
+        <c:axId val="114680480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-305039136"/>
+        <c:axId val="114675040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8931,7 +9047,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305033152"/>
+        <c:crossAx val="114680480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8939,7 +9055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-305033152"/>
+        <c:axId val="114680480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9046,7 +9162,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305039136"/>
+        <c:crossAx val="114675040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9380,11 +9496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-305028256"/>
-        <c:axId val="-305030432"/>
+        <c:axId val="329844464"/>
+        <c:axId val="329848816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-305028256"/>
+        <c:axId val="329844464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9427,7 +9543,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305030432"/>
+        <c:crossAx val="329848816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9435,7 +9551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-305030432"/>
+        <c:axId val="329848816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9555,7 +9671,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305028256"/>
+        <c:crossAx val="329844464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9876,11 +9992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-305038048"/>
-        <c:axId val="-305029344"/>
+        <c:axId val="329843920"/>
+        <c:axId val="329845008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-305038048"/>
+        <c:axId val="329843920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9923,7 +10039,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305029344"/>
+        <c:crossAx val="329845008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9931,7 +10047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-305029344"/>
+        <c:axId val="329845008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9982,7 +10098,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305038048"/>
+        <c:crossAx val="329843920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10328,11 +10444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-277395952"/>
-        <c:axId val="-277392688"/>
+        <c:axId val="329842288"/>
+        <c:axId val="329836304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-277395952"/>
+        <c:axId val="329842288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10375,7 +10491,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-277392688"/>
+        <c:crossAx val="329836304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10383,7 +10499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-277392688"/>
+        <c:axId val="329836304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10499,7 +10615,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-277395952"/>
+        <c:crossAx val="329842288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10721,11 +10837,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-277383984"/>
-        <c:axId val="-277388336"/>
+        <c:axId val="329841200"/>
+        <c:axId val="329843376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-277383984"/>
+        <c:axId val="329841200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10768,7 +10884,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-277388336"/>
+        <c:crossAx val="329843376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10776,7 +10892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-277388336"/>
+        <c:axId val="329843376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10883,7 +10999,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-277383984"/>
+        <c:crossAx val="329841200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11172,11 +11288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-42500064"/>
-        <c:axId val="-42493536"/>
+        <c:axId val="329839024"/>
+        <c:axId val="329839568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-42500064"/>
+        <c:axId val="329839024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11219,7 +11335,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42493536"/>
+        <c:crossAx val="329839568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11227,7 +11343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-42493536"/>
+        <c:axId val="329839568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11334,7 +11450,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42500064"/>
+        <c:crossAx val="329839024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11687,11 +11803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-42491360"/>
-        <c:axId val="-42494624"/>
+        <c:axId val="329840112"/>
+        <c:axId val="329842832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-42491360"/>
+        <c:axId val="329840112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11734,7 +11850,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42494624"/>
+        <c:crossAx val="329842832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11742,7 +11858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-42494624"/>
+        <c:axId val="329842832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11849,7 +11965,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-42491360"/>
+        <c:crossAx val="329840112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26575,8 +26691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26827,7 +26943,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -27100,10 +27216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27117,12 +27233,7 @@
     <col min="13" max="13" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -27142,7 +27253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
@@ -27171,7 +27282,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -27202,7 +27313,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
@@ -27226,7 +27337,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
@@ -27239,7 +27350,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
@@ -27254,7 +27365,12 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -27277,66 +27393,113 @@
       <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -27349,12 +27512,7 @@
     <col min="13" max="13" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -27374,7 +27532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
@@ -27390,7 +27548,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -27406,7 +27564,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
@@ -27418,14 +27576,14 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
@@ -27512,11 +27670,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -27529,12 +27685,7 @@
     <col min="13" max="13" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -27554,7 +27705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
@@ -27570,7 +27721,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -27586,7 +27737,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
@@ -27598,14 +27749,14 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="別役データ" sheetId="1" r:id="rId1"/>
@@ -28,41 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
   <si>
     <t>別役データ</t>
     <rPh sb="0" eb="2">
       <t>ベッチャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance１つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance２つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance３つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance４つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance５つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUITool使用(秒)</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ビョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -77,23 +47,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GUITool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>手動（Heat）</t>
     <rPh sb="0" eb="2">
       <t>シュドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUITool使用(個)</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -105,36 +61,6 @@
     <rPh sb="3" eb="4">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router１つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router２つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router３つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUITool使用（秒）</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router１つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router２つ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -176,26 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>instance１つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance２つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance３つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance４つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance５つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>手動（秒）</t>
     <rPh sb="0" eb="2">
       <t>シュドウ</t>
@@ -203,10 +109,6 @@
     <rPh sb="3" eb="4">
       <t>ビョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUITool</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -230,40 +132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Router１つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router２つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router３つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance１つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance２つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>instance４つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GUITool使用（回）</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>手動（回）</t>
     <rPh sb="0" eb="2">
       <t>シュドウ</t>
@@ -271,22 +139,6 @@
     <rPh sb="3" eb="4">
       <t>カイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router１つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router２つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Router３つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモ：</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -374,10 +226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GUITool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>手動(Heat)</t>
     <rPh sb="0" eb="2">
       <t>シュドウ</t>
@@ -391,6 +239,192 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>instance数</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Router数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船越データ</t>
+    <rPh sb="0" eb="2">
+      <t>フナコシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濱田データ</t>
+    <rPh sb="0" eb="2">
+      <t>ハマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手法</t>
+    <rPh sb="0" eb="2">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>instance数</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Router数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川村データ</t>
+    <rPh sb="0" eb="2">
+      <t>カワムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIエディタ使用(秒)</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIエディタ使用(個)</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIエディタ使用（秒）</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIエディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIエディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIエディタ使用（回）</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIエディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ：初めて記述する内容が含まれると作業が難航していた。また記述量が増加しても作業の進みが遅くなっている。</t>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>キジュツリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ：初めて記述する内容が含まれると作業時間が伸びていった。記述量が増加することでも作業時間は伸びていた。</t>
+    <rPh sb="3" eb="4">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>サギョウジカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>キジュツリョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>サギョウジカン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -516,7 +550,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別 記述時間比較グラフ（別役）</a:t>
+              <a:t>数別 記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -566,7 +608,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用(秒)</c:v>
+                  <c:v>GUIエディタ使用(秒)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -596,27 +638,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>別役データ!$G$3:$G$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -683,27 +726,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>別役データ!$G$3:$G$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -741,16 +785,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114685376"/>
-        <c:axId val="114679936"/>
+        <c:axId val="-1082303616"/>
+        <c:axId val="-1082310144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114685376"/>
+        <c:axId val="-1082303616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -788,7 +892,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114679936"/>
+        <c:crossAx val="-1082310144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -796,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114679936"/>
+        <c:axId val="-1082310144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +1020,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114685376"/>
+        <c:crossAx val="-1082303616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,7 +1144,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（手塚）</a:t>
+              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+              <a:t>）</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
           </a:p>
@@ -1091,7 +1203,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（回）</c:v>
+                  <c:v>GUIエディタ使用（回）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1121,21 +1233,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>手塚データ!$K$27:$K$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1196,21 +1309,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>手塚データ!$K$27:$K$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1242,16 +1356,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="329847184"/>
-        <c:axId val="329834672"/>
+        <c:axId val="-835557264"/>
+        <c:axId val="-835549648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329847184"/>
+        <c:axId val="-835557264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1289,7 +1463,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329834672"/>
+        <c:crossAx val="-835549648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1297,7 +1471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329834672"/>
+        <c:axId val="-835549648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1578,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329847184"/>
+        <c:crossAx val="-835557264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1525,7 +1699,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別　記述時間比較グラフ（船越）</a:t>
+              <a:t>数別　記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1575,7 +1757,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1605,27 +1787,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>船越データ!$F$3:$F$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1692,27 +1875,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>船越データ!$F$3:$F$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1750,16 +1934,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="329836848"/>
-        <c:axId val="330684992"/>
+        <c:axId val="-835555088"/>
+        <c:axId val="-835549104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329836848"/>
+        <c:axId val="-835555088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1797,7 +2041,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330684992"/>
+        <c:crossAx val="-835549104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1805,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330684992"/>
+        <c:axId val="-835549104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +2165,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329836848"/>
+        <c:crossAx val="-835555088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2037,7 +2281,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>学習時間（船越）</a:t>
+              <a:t>学習時間（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2109,7 +2361,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>GUITool</c:v>
+                  <c:v>GUIエディタ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>手動（Heat）</c:v>
@@ -2143,11 +2395,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330680640"/>
-        <c:axId val="330682816"/>
+        <c:axId val="-835553456"/>
+        <c:axId val="-835552912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330680640"/>
+        <c:axId val="-835553456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,7 +2442,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330682816"/>
+        <c:crossAx val="-835552912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2198,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330682816"/>
+        <c:axId val="-835552912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2557,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330680640"/>
+        <c:crossAx val="-835553456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2393,7 +2645,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別　記述時間比較グラフ（船越）</a:t>
+              <a:t>数別　記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2443,7 +2703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2473,21 +2733,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>船越データ!$K$3:$K$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2548,21 +2809,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>船越データ!$K$3:$K$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2594,16 +2856,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330686624"/>
-        <c:axId val="330681728"/>
+        <c:axId val="-833115648"/>
+        <c:axId val="-833114560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330686624"/>
+        <c:axId val="-833115648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2641,7 +2963,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330681728"/>
+        <c:crossAx val="-833114560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2649,7 +2971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330681728"/>
+        <c:axId val="-833114560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2756,7 +3078,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330686624"/>
+        <c:crossAx val="-833115648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2871,19 +3193,27 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
               <a:t>Instance</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>数別</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（船越）</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>）</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>　</a:t>
             </a:r>
           </a:p>
@@ -2934,7 +3264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（回）</c:v>
+                  <c:v>GUIエディタ使用（回）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2964,27 +3294,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>船越データ!$F$27:$F$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3051,27 +3382,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>船越データ!$F$27:$F$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3109,16 +3441,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330690976"/>
-        <c:axId val="330689888"/>
+        <c:axId val="-833113472"/>
+        <c:axId val="-833106944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330690976"/>
+        <c:axId val="-833113472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3156,7 +3548,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330689888"/>
+        <c:crossAx val="-833106944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3164,7 +3556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330689888"/>
+        <c:axId val="-833106944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,7 +3663,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330690976"/>
+        <c:crossAx val="-833113472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3395,7 +3787,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（船越）</a:t>
+              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+              <a:t>）</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
           </a:p>
@@ -3446,7 +3846,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（回）</c:v>
+                  <c:v>GUIエディタ使用（回）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3476,21 +3876,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>船越データ!$K$27:$K$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3551,21 +3952,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>船越データ!$K$27:$K$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3597,16 +3999,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330687712"/>
-        <c:axId val="330688256"/>
+        <c:axId val="-833116192"/>
+        <c:axId val="-833116736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330687712"/>
+        <c:axId val="-833116192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3644,7 +4106,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330688256"/>
+        <c:crossAx val="-833116736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3652,7 +4114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330688256"/>
+        <c:axId val="-833116736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,7 +4221,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330687712"/>
+        <c:crossAx val="-833116192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3880,7 +4342,23 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別　記述時間比較グラフ（濱田）</a:t>
+              <a:t>数別</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3930,7 +4408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3960,27 +4438,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>濱田データ!$F$3:$F$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3988,6 +4467,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4032,27 +4526,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>濱田データ!$F$3:$F$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4060,6 +4555,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>868</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4075,16 +4585,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330682272"/>
-        <c:axId val="330693152"/>
+        <c:axId val="-833112384"/>
+        <c:axId val="-833108576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330682272"/>
+        <c:axId val="-833112384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4122,7 +4692,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330693152"/>
+        <c:crossAx val="-833108576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4130,7 +4700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330693152"/>
+        <c:axId val="-833108576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4246,7 +4816,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330682272"/>
+        <c:crossAx val="-833112384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4362,7 +4932,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>学習時間（濱田）</a:t>
+              <a:t>学習時間（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4434,7 +5012,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>GUITool</c:v>
+                  <c:v>GUIエディタ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>手動（Heat）</c:v>
@@ -4448,6 +5026,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>479</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4462,11 +5046,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330694240"/>
-        <c:axId val="330693696"/>
+        <c:axId val="-833111840"/>
+        <c:axId val="-833121088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330694240"/>
+        <c:axId val="-833111840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,7 +5093,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330693696"/>
+        <c:crossAx val="-833121088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4517,7 +5101,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330693696"/>
+        <c:axId val="-833121088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4624,7 +5208,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330694240"/>
+        <c:crossAx val="-833111840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4712,7 +5296,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別　記述時間比較グラフ（濱田）</a:t>
+              <a:t>数別　記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4762,7 +5354,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4792,21 +5384,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>濱田データ!$K$3:$K$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4814,6 +5407,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4858,21 +5460,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>濱田データ!$K$3:$K$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4880,6 +5483,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1946</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4895,16 +5507,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330683360"/>
-        <c:axId val="330683904"/>
+        <c:axId val="-833109120"/>
+        <c:axId val="-833120000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330683360"/>
+        <c:axId val="-833109120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4942,7 +5614,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330683904"/>
+        <c:crossAx val="-833120000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4950,7 +5622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330683904"/>
+        <c:axId val="-833120000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5057,7 +5729,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330683360"/>
+        <c:crossAx val="-833109120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5172,19 +5844,27 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
               <a:t>Instance</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>数別</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（濱田）</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>）</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>　</a:t>
             </a:r>
           </a:p>
@@ -5235,7 +5915,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（回）</c:v>
+                  <c:v>GUIエディタ使用（回）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5265,27 +5945,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>濱田データ!$F$27:$F$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5293,6 +5974,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5337,27 +6033,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>濱田データ!$F$27:$F$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5365,6 +6062,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5380,16 +6092,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331499280"/>
-        <c:axId val="331499824"/>
+        <c:axId val="-833118912"/>
+        <c:axId val="-833110752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331499280"/>
+        <c:axId val="-833118912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5427,7 +6199,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331499824"/>
+        <c:crossAx val="-833110752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5435,7 +6207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331499824"/>
+        <c:axId val="-833110752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5542,7 +6314,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331499280"/>
+        <c:crossAx val="-833118912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5666,11 +6438,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>別役</a:t>
+              <a:t>被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>)</a:t>
+              <a:t>A)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5742,7 +6514,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>GUITool</c:v>
+                  <c:v>GUIエディタ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>手動（Heat）</c:v>
@@ -5776,11 +6548,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114679392"/>
-        <c:axId val="114674496"/>
+        <c:axId val="-1082312320"/>
+        <c:axId val="-1082307968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114679392"/>
+        <c:axId val="-1082312320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,7 +6595,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114674496"/>
+        <c:crossAx val="-1082307968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5831,7 +6603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114674496"/>
+        <c:axId val="-1082307968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5950,7 +6722,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114679392"/>
+        <c:crossAx val="-1082312320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6042,7 +6814,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（濱田）</a:t>
+              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+              <a:t>D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+              <a:t>）</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
           </a:p>
@@ -6093,7 +6873,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（回）</c:v>
+                  <c:v>GUIエディタ使用（回）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6123,21 +6903,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>濱田データ!$K$27:$K$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6145,6 +6926,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6189,21 +6979,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>濱田データ!$K$27:$K$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6211,6 +7002,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6226,16 +7026,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331493840"/>
-        <c:axId val="331503632"/>
+        <c:axId val="-833110208"/>
+        <c:axId val="-833334224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331493840"/>
+        <c:axId val="-833110208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6273,7 +7133,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331503632"/>
+        <c:crossAx val="-833334224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6281,7 +7141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331503632"/>
+        <c:axId val="-833334224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6388,7 +7248,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331493840"/>
+        <c:crossAx val="-833110208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6509,7 +7369,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別　記述時間比較グラフ（川村）</a:t>
+              <a:t>数別　記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>E</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6559,7 +7427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6589,27 +7457,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>川村データ!$F$3:$F$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6617,6 +7486,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6661,27 +7545,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>川村データ!$F$3:$F$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6689,6 +7574,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>731</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6704,16 +7604,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331500912"/>
-        <c:axId val="331493296"/>
+        <c:axId val="-833341840"/>
+        <c:axId val="-833336400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331500912"/>
+        <c:axId val="-833341840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6751,7 +7711,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331493296"/>
+        <c:crossAx val="-833336400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6759,7 +7719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331493296"/>
+        <c:axId val="-833336400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6875,7 +7835,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331500912"/>
+        <c:crossAx val="-833341840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6991,7 +7951,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>学習時間（川村）</a:t>
+              <a:t>学習時間（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>E</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7063,7 +8031,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>GUITool</c:v>
+                  <c:v>GUIエディタ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>手動（Heat）</c:v>
@@ -7077,6 +8045,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7091,11 +8065,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="331489488"/>
-        <c:axId val="331494928"/>
+        <c:axId val="-833341296"/>
+        <c:axId val="-833340752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="331489488"/>
+        <c:axId val="-833341296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7138,7 +8112,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331494928"/>
+        <c:crossAx val="-833340752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7146,7 +8120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331494928"/>
+        <c:axId val="-833340752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7253,7 +8227,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331489488"/>
+        <c:crossAx val="-833341296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7341,7 +8315,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別　記述時間比較グラフ（川村）</a:t>
+              <a:t>数別　記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>E</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7391,7 +8373,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7421,21 +8403,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>川村データ!$K$3:$K$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7443,6 +8426,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>229</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7487,21 +8479,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>川村データ!$K$3:$K$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7509,6 +8502,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1191</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7524,16 +8526,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331498192"/>
-        <c:axId val="331491120"/>
+        <c:axId val="-833345648"/>
+        <c:axId val="-833335856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331498192"/>
+        <c:axId val="-833345648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7571,7 +8633,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331491120"/>
+        <c:crossAx val="-833335856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7579,7 +8641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331491120"/>
+        <c:axId val="-833335856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7686,7 +8748,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331498192"/>
+        <c:crossAx val="-833345648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7801,19 +8863,27 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
               <a:t>Instance</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>数別</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（川村）</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>E</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>）</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>　</a:t>
             </a:r>
           </a:p>
@@ -7864,7 +8934,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（回）</c:v>
+                  <c:v>GUIエディタ使用（回）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7894,27 +8964,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>川村データ!$F$27:$F$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7922,6 +8993,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7966,27 +9052,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>川村データ!$F$27:$F$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7994,6 +9081,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8009,16 +9111,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331497104"/>
-        <c:axId val="331498736"/>
+        <c:axId val="-833344016"/>
+        <c:axId val="-833347280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331497104"/>
+        <c:axId val="-833344016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8056,7 +9218,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331498736"/>
+        <c:crossAx val="-833347280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8064,7 +9226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331498736"/>
+        <c:axId val="-833347280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8171,7 +9333,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331497104"/>
+        <c:crossAx val="-833344016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8295,7 +9457,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（川村）</a:t>
+              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+              <a:t>E</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+              <a:t>）</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
           </a:p>
@@ -8346,7 +9516,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（回）</c:v>
+                  <c:v>GUIエディタ使用（回）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8376,21 +9546,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>川村データ!$K$27:$K$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8398,6 +9569,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8442,21 +9622,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>川村データ!$K$27:$K$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8464,6 +9645,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8479,16 +9669,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331502000"/>
-        <c:axId val="331503088"/>
+        <c:axId val="-833343472"/>
+        <c:axId val="-833333136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331502000"/>
+        <c:axId val="-833343472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8526,7 +9776,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331503088"/>
+        <c:crossAx val="-833333136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8534,7 +9784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331503088"/>
+        <c:axId val="-833333136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8641,7 +9891,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331502000"/>
+        <c:crossAx val="-833343472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8757,26 +10007,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
               <a:t>Instance</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>数別 テンプレートファイル作成失敗数</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
               <a:t>(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              <a:t>別役</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>被験者</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>)</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>A)</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8825,7 +10075,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用(個)</c:v>
+                  <c:v>GUIエディタ使用(個)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8855,27 +10105,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>別役データ!$G$34:$G$38</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8942,27 +10193,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>別役データ!$G$34:$G$38</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9000,16 +10252,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114675040"/>
-        <c:axId val="114680480"/>
+        <c:axId val="-1082305792"/>
+        <c:axId val="-1082317760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114675040"/>
+        <c:axId val="-1082305792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9047,7 +10359,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114680480"/>
+        <c:crossAx val="-1082317760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9055,7 +10367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114680480"/>
+        <c:axId val="-1082317760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9162,7 +10474,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114675040"/>
+        <c:crossAx val="-1082305792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9290,11 +10602,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>別役</a:t>
+              <a:t>被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>)</a:t>
+              <a:t>A)</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
@@ -9345,7 +10657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9375,21 +10687,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>別役データ!$L$3:$L$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9450,21 +10763,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>別役データ!$L$3:$L$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9496,16 +10810,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="329844464"/>
-        <c:axId val="329848816"/>
+        <c:axId val="-1082313952"/>
+        <c:axId val="-1082313408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329844464"/>
+        <c:axId val="-1082313952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9543,7 +10917,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329848816"/>
+        <c:crossAx val="-1082313408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9551,7 +10925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329848816"/>
+        <c:axId val="-1082313408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9671,7 +11045,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329844464"/>
+        <c:crossAx val="-1082313952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9791,7 +11165,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              <a:t>数別 テンプレートファイル作成失敗数（別役）</a:t>
+              <a:t>数別 テンプレートファイル作成失敗数（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9841,7 +11223,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用(個)</c:v>
+                  <c:v>GUIエディタ使用(個)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9871,21 +11253,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>別役データ!$L$36:$L$38</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9946,21 +11329,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>別役データ!$L$36:$L$38</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9992,16 +11376,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="329843920"/>
-        <c:axId val="329845008"/>
+        <c:axId val="-1082317216"/>
+        <c:axId val="-1082316128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329843920"/>
+        <c:axId val="-1082317216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10039,7 +11483,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329845008"/>
+        <c:crossAx val="-1082316128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10047,7 +11491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329845008"/>
+        <c:axId val="-1082316128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10067,6 +11511,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>作成失敗数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10098,7 +11598,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329843920"/>
+        <c:crossAx val="-1082317216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -10219,7 +11719,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別　記述時間比較グラフ（手塚）</a:t>
+              <a:t>数別　記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10269,7 +11777,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10299,27 +11807,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>手塚データ!$F$3:$F$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -10386,27 +11895,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>手塚データ!$F$3:$F$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -10444,16 +11954,77 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="329842288"/>
-        <c:axId val="329836304"/>
+        <c:axId val="-835548016"/>
+        <c:axId val="-835561072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329842288"/>
+        <c:axId val="-835548016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10491,7 +12062,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329836304"/>
+        <c:crossAx val="-835561072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10499,7 +12070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329836304"/>
+        <c:axId val="-835561072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10615,7 +12186,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329842288"/>
+        <c:crossAx val="-835548016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10731,7 +12302,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>学習時間（手塚）</a:t>
+              <a:t>学習時間（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10803,7 +12382,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>GUITool</c:v>
+                  <c:v>GUIエディタ</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>手動（Heat）</c:v>
@@ -10837,11 +12416,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="329841200"/>
-        <c:axId val="329843376"/>
+        <c:axId val="-835562160"/>
+        <c:axId val="-835559440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329841200"/>
+        <c:axId val="-835562160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10884,7 +12463,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329843376"/>
+        <c:crossAx val="-835559440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10892,7 +12471,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329843376"/>
+        <c:axId val="-835559440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10999,7 +12578,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329841200"/>
+        <c:crossAx val="-835562160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11087,7 +12666,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>数別　記述時間比較グラフ（手塚）</a:t>
+              <a:t>数別　記述時間比較グラフ（被験者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11137,7 +12724,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（秒）</c:v>
+                  <c:v>GUIエディタ使用（秒）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11167,21 +12754,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>手塚データ!$K$3:$K$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11242,21 +12830,22 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>手塚データ!$K$3:$K$5</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Router１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Router２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Router３つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11288,16 +12877,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="329839024"/>
-        <c:axId val="329839568"/>
+        <c:axId val="-835556720"/>
+        <c:axId val="-835562704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329839024"/>
+        <c:axId val="-835556720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Router</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11335,7 +12984,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329839568"/>
+        <c:crossAx val="-835562704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11343,7 +12992,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329839568"/>
+        <c:axId val="-835562704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11450,7 +13099,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329839024"/>
+        <c:crossAx val="-835556720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11565,19 +13214,27 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
               <a:t>Instance</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>数別</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（手塚）</a:t>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>）</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>　</a:t>
             </a:r>
           </a:p>
@@ -11628,7 +13285,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GUITool使用（回）</c:v>
+                  <c:v>GUIエディタ使用（回）</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11658,27 +13315,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>手塚データ!$F$27:$F$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11745,27 +13403,28 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>手塚データ!$F$27:$F$31</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>instance１つ</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>instance２つ</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>instance３つ</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>instance４つ</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>instance５つ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11803,16 +13462,76 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="329840112"/>
-        <c:axId val="329842832"/>
+        <c:axId val="-835561616"/>
+        <c:axId val="-835558352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="329840112"/>
+        <c:axId val="-835561616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>instance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11850,7 +13569,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329842832"/>
+        <c:crossAx val="-835558352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11858,7 +13577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="329842832"/>
+        <c:axId val="-835558352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11965,7 +13684,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329840112"/>
+        <c:crossAx val="-835561616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26691,8 +28410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26701,7 +28420,7 @@
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="13" max="13" width="16.625" customWidth="1"/>
     <col min="14" max="14" width="14.75" customWidth="1"/>
@@ -26713,33 +28432,39 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>180</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1">
@@ -26748,8 +28473,8 @@
       <c r="I3" s="1">
         <v>685</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
+      <c r="L3" s="1">
+        <v>1</v>
       </c>
       <c r="M3" s="1">
         <v>105</v>
@@ -26760,12 +28485,12 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>540</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="1">
@@ -26775,8 +28500,8 @@
         <f>(8*60)+51</f>
         <v>531</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
+      <c r="L4" s="1">
+        <v>2</v>
       </c>
       <c r="M4" s="1">
         <f>60+53</f>
@@ -26788,7 +28513,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1">
@@ -26799,8 +28524,8 @@
         <f>(9*60)+57</f>
         <v>597</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>14</v>
+      <c r="L5" s="1">
+        <v>3</v>
       </c>
       <c r="M5" s="1">
         <f>120+40</f>
@@ -26812,7 +28537,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1">
         <v>4</v>
       </c>
       <c r="H6" s="1">
@@ -26825,7 +28550,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" s="1">
@@ -26839,20 +28564,22 @@
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H31" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.15">
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="7:14" x14ac:dyDescent="0.15">
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="1">
         <v>1</v>
       </c>
       <c r="H34" s="1">
@@ -26863,7 +28590,7 @@
       </c>
     </row>
     <row r="35" spans="7:14" x14ac:dyDescent="0.15">
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="1">
         <v>2</v>
       </c>
       <c r="H35" s="1">
@@ -26872,16 +28599,18 @@
       <c r="I35" s="1">
         <v>0</v>
       </c>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="M35" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="7:14" x14ac:dyDescent="0.15">
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="1">
         <v>3</v>
       </c>
       <c r="H36" s="1">
@@ -26890,8 +28619,8 @@
       <c r="I36" s="1">
         <v>3</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>16</v>
+      <c r="L36" s="1">
+        <v>1</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -26901,7 +28630,7 @@
       </c>
     </row>
     <row r="37" spans="7:14" x14ac:dyDescent="0.15">
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="1">
         <v>4</v>
       </c>
       <c r="H37" s="1">
@@ -26910,8 +28639,8 @@
       <c r="I37" s="1">
         <v>1</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>17</v>
+      <c r="L37" s="1">
+        <v>2</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -26921,7 +28650,7 @@
       </c>
     </row>
     <row r="38" spans="7:14" x14ac:dyDescent="0.15">
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="1">
         <v>5</v>
       </c>
       <c r="H38" s="1">
@@ -26930,8 +28659,8 @@
       <c r="I38" s="1">
         <v>0</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>14</v>
+      <c r="L38" s="1">
+        <v>3</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -26953,7 +28682,577 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="4" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <f>60*1+12</f>
+        <v>72</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1">
+        <f>20*60+16</f>
+        <v>1216</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <f>180+10</f>
+        <v>190</v>
+      </c>
+      <c r="M3" s="1">
+        <f>12*60+25</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>7*60+1</f>
+        <v>421</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <f>60+2</f>
+        <v>62</v>
+      </c>
+      <c r="H4" s="1">
+        <f>22*60+4</f>
+        <v>1324</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f>2*60+4</f>
+        <v>124</v>
+      </c>
+      <c r="M4" s="1">
+        <f>14*60+22</f>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <f>120+46</f>
+        <v>166</v>
+      </c>
+      <c r="H5" s="1">
+        <f>15*60+31</f>
+        <v>931</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f>2*60+40</f>
+        <v>160</v>
+      </c>
+      <c r="M5" s="1">
+        <f>12*60+10</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <f>60+37</f>
+        <v>97</v>
+      </c>
+      <c r="H6" s="1">
+        <f>11*60+33</f>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <f>180+10</f>
+        <v>190</v>
+      </c>
+      <c r="H7" s="1">
+        <f>12*60+25</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D32:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="4" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>90</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
+        <f>22*60+8</f>
+        <v>1328</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <f>60+46</f>
+        <v>106</v>
+      </c>
+      <c r="M3" s="1">
+        <f>25*60+32</f>
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>8*60+23</f>
+        <v>503</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <f>60+37</f>
+        <v>97</v>
+      </c>
+      <c r="H4" s="1">
+        <f>26*60+0</f>
+        <v>1560</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <f>3*60+48</f>
+        <v>228</v>
+      </c>
+      <c r="M4" s="1">
+        <f>34*60+30</f>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <f>2*60+28</f>
+        <v>148</v>
+      </c>
+      <c r="H5" s="1">
+        <f>14*60+46</f>
+        <v>886</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f>2*60+42</f>
+        <v>162</v>
+      </c>
+      <c r="M5" s="1">
+        <f>49*60+50</f>
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <f>2*60+27</f>
+        <v>147</v>
+      </c>
+      <c r="H6" s="1">
+        <f>20*60+58</f>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <f>60+46</f>
+        <v>106</v>
+      </c>
+      <c r="H7" s="1">
+        <f>25*60+32</f>
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26973,234 +29272,243 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
-        <f>60*1+12</f>
-        <v>72</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
+        <f>60+30</f>
+        <v>90</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>28</v>
+        <f>60+11</f>
+        <v>71</v>
       </c>
       <c r="H3" s="1">
-        <f>20*60+16</f>
-        <v>1216</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
+        <f>22*60+3</f>
+        <v>1323</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <f>180+10</f>
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="M3" s="1">
-        <f>12*60+25</f>
-        <v>745</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f>7*60+1</f>
-        <v>421</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
+        <f>7*60+59</f>
+        <v>479</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f>60+2</f>
-        <v>62</v>
+        <f>60+37</f>
+        <v>97</v>
       </c>
       <c r="H4" s="1">
-        <f>22*60+4</f>
-        <v>1324</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
+        <f>19*60+40</f>
+        <v>1180</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
       </c>
       <c r="L4" s="1">
-        <f>2*60+4</f>
-        <v>124</v>
+        <f>3*60+8</f>
+        <v>188</v>
       </c>
       <c r="M4" s="1">
-        <f>14*60+22</f>
-        <v>862</v>
+        <f>19*60+33</f>
+        <v>1173</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F5" s="1" t="s">
-        <v>22</v>
+      <c r="F5" s="1">
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f>120+46</f>
-        <v>166</v>
+        <f>60+57</f>
+        <v>117</v>
       </c>
       <c r="H5" s="1">
-        <f>15*60+31</f>
-        <v>931</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
+        <f>15*60+16</f>
+        <v>916</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>2*60+40</f>
-        <v>160</v>
+        <f>2*60+25</f>
+        <v>145</v>
       </c>
       <c r="M5" s="1">
-        <f>12*60+10</f>
-        <v>730</v>
+        <f>32*60+26</f>
+        <v>1946</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F6" s="1" t="s">
-        <v>23</v>
+      <c r="F6" s="1">
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f>60+37</f>
-        <v>97</v>
+        <f>3*60+51</f>
+        <v>231</v>
       </c>
       <c r="H6" s="1">
-        <f>11*60+33</f>
-        <v>693</v>
+        <f>16*60+15</f>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F7" s="1" t="s">
-        <v>24</v>
+      <c r="F7" s="1">
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f>180+10</f>
-        <v>190</v>
+        <f>2*60+19</f>
+        <v>139</v>
       </c>
       <c r="H7" s="1">
-        <f>12*60+25</f>
-        <v>745</v>
+        <f>14*60+28</f>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L26" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F27" s="1" t="s">
-        <v>32</v>
+      <c r="F27" s="1">
+        <v>1</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>7</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F28" s="1" t="s">
-        <v>33</v>
+      <c r="F28" s="1">
+        <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>6</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F29" s="1" t="s">
-        <v>22</v>
+      <c r="F29" s="1">
+        <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
         <v>3</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>39</v>
+      <c r="K29" s="1">
+        <v>3</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F30" s="1" t="s">
-        <v>34</v>
+      <c r="F30" s="1">
+        <v>4</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F31" s="1" t="s">
-        <v>24</v>
+      <c r="F31" s="1">
+        <v>5</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
         <v>3</v>
@@ -27209,17 +29517,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27233,209 +29540,215 @@
     <col min="13" max="13" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="1"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
-        <v>90</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
+        <f>60+43</f>
+        <v>103</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>36</v>
+        <f>52</f>
+        <v>52</v>
       </c>
       <c r="H3" s="1">
-        <f>22*60+8</f>
-        <v>1328</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
+        <f>20*60</f>
+        <v>1200</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <f>60+46</f>
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="M3" s="1">
-        <f>25*60+32</f>
-        <v>1532</v>
+        <v>731</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f>8*60+23</f>
-        <v>503</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
+        <f>6*60+53</f>
+        <v>413</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f>60+37</f>
-        <v>97</v>
+        <f>60+25</f>
+        <v>85</v>
       </c>
       <c r="H4" s="1">
-        <f>26*60+0</f>
-        <v>1560</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
+        <f>20*60+29</f>
+        <v>1229</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
       </c>
       <c r="L4" s="1">
-        <f>3*60+48</f>
-        <v>228</v>
+        <f>3*60+9</f>
+        <v>189</v>
       </c>
       <c r="M4" s="1">
-        <f>34*60+30</f>
-        <v>2070</v>
+        <f>38*60+16</f>
+        <v>2296</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F5" s="1" t="s">
-        <v>22</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F5" s="1">
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f>2*60+28</f>
-        <v>148</v>
+        <f>60+47</f>
+        <v>107</v>
       </c>
       <c r="H5" s="1">
-        <f>14*60+46</f>
-        <v>886</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
+        <f>11*60+23</f>
+        <v>683</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>2*60+42</f>
-        <v>162</v>
+        <f>3*60+49</f>
+        <v>229</v>
       </c>
       <c r="M5" s="1">
-        <f>49*60+50</f>
-        <v>2990</v>
+        <f>19*60+51</f>
+        <v>1191</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F6" s="1" t="s">
-        <v>23</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F6" s="1">
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f>2*60+27</f>
-        <v>147</v>
+        <f>2*60+3</f>
+        <v>123</v>
       </c>
       <c r="H6" s="1">
-        <f>20*60+58</f>
-        <v>1258</v>
+        <f>15*60+17</f>
+        <v>917</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F7" s="1" t="s">
-        <v>24</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F7" s="1">
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f>60+46</f>
-        <v>106</v>
+        <f>2*60+17</f>
+        <v>137</v>
       </c>
       <c r="H7" s="1">
-        <f>25*60+32</f>
-        <v>1532</v>
+        <f>12*60+11</f>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L26" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F27" s="1" t="s">
-        <v>32</v>
+      <c r="F27" s="1">
+        <v>1</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>6</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F28" s="1" t="s">
-        <v>33</v>
+      <c r="F28" s="1">
+        <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>4</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>22</v>
+      <c r="F29" s="1">
+        <v>3</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -27443,396 +29756,37 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>39</v>
+      <c r="K29" s="1">
+        <v>3</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>34</v>
+      <c r="F30" s="1">
+        <v>4</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>24</v>
+      <c r="F31" s="1">
+        <v>5</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="4" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="4" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="11" max="11" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\貴大\Documents\構成マップ見た目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUIToolLocalrepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="別役データ" sheetId="1" r:id="rId1"/>
@@ -886,11 +886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1060997520"/>
-        <c:axId val="-1060987184"/>
+        <c:axId val="167830176"/>
+        <c:axId val="170365744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1060997520"/>
+        <c:axId val="167830176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +993,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060987184"/>
+        <c:crossAx val="170365744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060987184"/>
+        <c:axId val="170365744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1042,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間</a:t>
+                  <a:t>作成所要時間</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1121,7 +1121,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060997520"/>
+        <c:crossAx val="167830176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,11 +1484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-869224864"/>
-        <c:axId val="-869233024"/>
+        <c:axId val="171571312"/>
+        <c:axId val="171571872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-869224864"/>
+        <c:axId val="171571312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1591,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869233024"/>
+        <c:crossAx val="171571872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1599,7 +1599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-869233024"/>
+        <c:axId val="171571872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1706,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869224864"/>
+        <c:crossAx val="171571312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,11 +2042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-869228672"/>
-        <c:axId val="-869235200"/>
+        <c:axId val="171575232"/>
+        <c:axId val="171575792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-869228672"/>
+        <c:axId val="171575232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2149,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869235200"/>
+        <c:crossAx val="171575792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2157,7 +2157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-869235200"/>
+        <c:axId val="171575792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2264,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869228672"/>
+        <c:crossAx val="171575232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2620,11 +2620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-869237376"/>
-        <c:axId val="-869229760"/>
+        <c:axId val="171579152"/>
+        <c:axId val="171579712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-869237376"/>
+        <c:axId val="171579152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +2727,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869229760"/>
+        <c:crossAx val="171579712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2735,7 +2735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-869229760"/>
+        <c:axId val="171579712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,7 +2785,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間（秒）</a:t>
+                  <a:t>作成所要時間（秒）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2851,7 +2851,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869237376"/>
+        <c:crossAx val="171579152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,11 +3081,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-869235744"/>
-        <c:axId val="-869227584"/>
+        <c:axId val="171582512"/>
+        <c:axId val="171583072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-869235744"/>
+        <c:axId val="171582512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,7 +3128,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869227584"/>
+        <c:crossAx val="171583072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3136,7 +3136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-869227584"/>
+        <c:axId val="171583072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3243,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869235744"/>
+        <c:crossAx val="171582512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3542,11 +3542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-869231392"/>
-        <c:axId val="-869230848"/>
+        <c:axId val="171585872"/>
+        <c:axId val="171586432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-869231392"/>
+        <c:axId val="171585872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3649,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869230848"/>
+        <c:crossAx val="171586432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3657,7 +3657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-869230848"/>
+        <c:axId val="171586432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3698,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間（秒</a:t>
+                  <a:t>作成所要時間（秒</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3764,7 +3764,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869231392"/>
+        <c:crossAx val="171585872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4127,11 +4127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-869226496"/>
-        <c:axId val="-869225952"/>
+        <c:axId val="172120096"/>
+        <c:axId val="172120656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-869226496"/>
+        <c:axId val="172120096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,7 +4234,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869225952"/>
+        <c:crossAx val="172120656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4242,7 +4242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-869225952"/>
+        <c:axId val="172120656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4349,7 +4349,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869226496"/>
+        <c:crossAx val="172120096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4685,11 +4685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-869236832"/>
-        <c:axId val="-869236288"/>
+        <c:axId val="172124016"/>
+        <c:axId val="172124576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-869236832"/>
+        <c:axId val="172124016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,7 +4792,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869236288"/>
+        <c:crossAx val="172124576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4800,7 +4800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-869236288"/>
+        <c:axId val="172124576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,7 +4907,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869236832"/>
+        <c:crossAx val="172124016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5271,11 +5271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-868534464"/>
-        <c:axId val="-868537728"/>
+        <c:axId val="172127936"/>
+        <c:axId val="172128496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-868534464"/>
+        <c:axId val="172127936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5378,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868537728"/>
+        <c:crossAx val="172128496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5386,7 +5386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868537728"/>
+        <c:axId val="172128496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5436,7 +5436,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間（秒）</a:t>
+                  <a:t>作成所要時間（秒）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5502,7 +5502,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868534464"/>
+        <c:crossAx val="172127936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5732,11 +5732,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-868544256"/>
-        <c:axId val="-868543712"/>
+        <c:axId val="172131296"/>
+        <c:axId val="172131856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-868544256"/>
+        <c:axId val="172131296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5779,7 +5779,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868543712"/>
+        <c:crossAx val="172131856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5787,7 +5787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868543712"/>
+        <c:axId val="172131856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,7 +5894,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868544256"/>
+        <c:crossAx val="172131296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6193,11 +6193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-868542624"/>
-        <c:axId val="-868533376"/>
+        <c:axId val="172545952"/>
+        <c:axId val="172546512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-868542624"/>
+        <c:axId val="172545952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6300,7 +6300,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868533376"/>
+        <c:crossAx val="172546512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6308,7 +6308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868533376"/>
+        <c:axId val="172546512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6349,7 +6349,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間（秒</a:t>
+                  <a:t>作成所要時間（秒</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6415,7 +6415,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868542624"/>
+        <c:crossAx val="172545952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6649,11 +6649,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1060988272"/>
-        <c:axId val="-1060985008"/>
+        <c:axId val="170368544"/>
+        <c:axId val="170369104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1060988272"/>
+        <c:axId val="170368544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6696,7 +6696,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060985008"/>
+        <c:crossAx val="170369104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6704,7 +6704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060985008"/>
+        <c:axId val="170369104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,7 +6823,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060988272"/>
+        <c:crossAx val="170368544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7154,11 +7154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-868542080"/>
-        <c:axId val="-868540992"/>
+        <c:axId val="172549872"/>
+        <c:axId val="172550432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-868542080"/>
+        <c:axId val="172549872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7261,7 +7261,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868540992"/>
+        <c:crossAx val="172550432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7269,7 +7269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868540992"/>
+        <c:axId val="172550432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7376,7 +7376,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868542080"/>
+        <c:crossAx val="172549872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7712,11 +7712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-868532288"/>
-        <c:axId val="-868536640"/>
+        <c:axId val="172553792"/>
+        <c:axId val="172554352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-868532288"/>
+        <c:axId val="172553792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7819,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868536640"/>
+        <c:crossAx val="172554352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7827,7 +7827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868536640"/>
+        <c:axId val="172554352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7934,7 +7934,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868532288"/>
+        <c:crossAx val="172553792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8125,16 +8125,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP" altLang="en-US"/>
@@ -8328,11 +8325,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-751466976"/>
-        <c:axId val="-751453920"/>
+        <c:axId val="172557712"/>
+        <c:axId val="172558272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-751466976"/>
+        <c:axId val="172557712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8398,6 +8395,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8434,7 +8432,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751453920"/>
+        <c:crossAx val="172558272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8442,7 +8440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-751453920"/>
+        <c:axId val="172558272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8562,7 +8560,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751466976"/>
+        <c:crossAx val="172557712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8917,11 +8915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-868535008"/>
-        <c:axId val="-868533920"/>
+        <c:axId val="172265328"/>
+        <c:axId val="172265888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-868535008"/>
+        <c:axId val="172265328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9024,7 +9022,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868533920"/>
+        <c:crossAx val="172265888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9032,7 +9030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868533920"/>
+        <c:axId val="172265888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9082,7 +9080,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間（秒）</a:t>
+                  <a:t>作成所要時間（秒）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9148,7 +9146,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868535008"/>
+        <c:crossAx val="172265328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9378,11 +9376,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-868530656"/>
-        <c:axId val="-868530112"/>
+        <c:axId val="172268688"/>
+        <c:axId val="172269248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-868530656"/>
+        <c:axId val="172268688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9425,7 +9423,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868530112"/>
+        <c:crossAx val="172269248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9433,7 +9431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868530112"/>
+        <c:axId val="172269248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9540,7 +9538,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868530656"/>
+        <c:crossAx val="172268688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9839,11 +9837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-868295424"/>
-        <c:axId val="-868288352"/>
+        <c:axId val="172272048"/>
+        <c:axId val="172272608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-868295424"/>
+        <c:axId val="172272048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9946,7 +9944,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868288352"/>
+        <c:crossAx val="172272608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9954,7 +9952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868288352"/>
+        <c:axId val="172272608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9995,7 +9993,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間（秒</a:t>
+                  <a:t>作成所要時間（秒</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10061,7 +10059,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868295424"/>
+        <c:crossAx val="172272048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10424,11 +10422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-868294336"/>
-        <c:axId val="-868291072"/>
+        <c:axId val="172275968"/>
+        <c:axId val="172276528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-868294336"/>
+        <c:axId val="172275968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10531,7 +10529,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868291072"/>
+        <c:crossAx val="172276528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10539,7 +10537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868291072"/>
+        <c:axId val="172276528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10646,7 +10644,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868294336"/>
+        <c:crossAx val="172275968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10982,11 +10980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-868281280"/>
-        <c:axId val="-868292704"/>
+        <c:axId val="172279888"/>
+        <c:axId val="172280448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-868281280"/>
+        <c:axId val="172279888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11089,7 +11087,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868292704"/>
+        <c:crossAx val="172280448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11097,7 +11095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-868292704"/>
+        <c:axId val="172280448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11204,7 +11202,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-868281280"/>
+        <c:crossAx val="172279888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11565,11 +11563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1060989904"/>
-        <c:axId val="-1060992624"/>
+        <c:axId val="170371904"/>
+        <c:axId val="170372464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1060989904"/>
+        <c:axId val="170371904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11672,7 +11670,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060992624"/>
+        <c:crossAx val="170372464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11680,7 +11678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060992624"/>
+        <c:axId val="170372464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11787,7 +11785,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060989904"/>
+        <c:crossAx val="170371904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12123,11 +12121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1060989360"/>
-        <c:axId val="-1060987728"/>
+        <c:axId val="170375824"/>
+        <c:axId val="170376384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1060989360"/>
+        <c:axId val="170375824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12230,7 +12228,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060987728"/>
+        <c:crossAx val="170376384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12238,7 +12236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060987728"/>
+        <c:axId val="170376384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12279,7 +12277,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間</a:t>
+                  <a:t>作成所要時間</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -12358,7 +12356,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060989360"/>
+        <c:crossAx val="170375824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12689,11 +12687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1060998064"/>
-        <c:axId val="-1060990448"/>
+        <c:axId val="170379744"/>
+        <c:axId val="170380304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1060998064"/>
+        <c:axId val="170379744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12796,7 +12794,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060990448"/>
+        <c:crossAx val="170380304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12804,7 +12802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060990448"/>
+        <c:axId val="170380304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12911,7 +12909,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060998064"/>
+        <c:crossAx val="170379744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -13215,11 +13213,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-750253552"/>
-        <c:axId val="-750249200"/>
+        <c:axId val="171034656"/>
+        <c:axId val="171035216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-750253552"/>
+        <c:axId val="171034656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13322,7 +13320,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-750249200"/>
+        <c:crossAx val="171035216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13330,7 +13328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-750249200"/>
+        <c:axId val="171035216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13450,7 +13448,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-750253552"/>
+        <c:crossAx val="171034656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13805,11 +13803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1060986096"/>
-        <c:axId val="-1060996432"/>
+        <c:axId val="171038576"/>
+        <c:axId val="171039136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1060986096"/>
+        <c:axId val="171038576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13913,7 +13911,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060996432"/>
+        <c:crossAx val="171039136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13921,7 +13919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060996432"/>
+        <c:axId val="171039136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13971,7 +13969,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間（秒）</a:t>
+                  <a:t>作成所要時間（秒）</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -14037,7 +14035,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060986096"/>
+        <c:crossAx val="171038576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14267,11 +14265,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1060993712"/>
-        <c:axId val="-1060993168"/>
+        <c:axId val="171041936"/>
+        <c:axId val="171042496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1060993712"/>
+        <c:axId val="171041936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14314,7 +14312,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060993168"/>
+        <c:crossAx val="171042496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14322,7 +14320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060993168"/>
+        <c:axId val="171042496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14429,7 +14427,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060993712"/>
+        <c:crossAx val="171041936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14728,11 +14726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1060990992"/>
-        <c:axId val="-869233568"/>
+        <c:axId val="171045296"/>
+        <c:axId val="171045856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1060990992"/>
+        <c:axId val="171045296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14835,7 +14833,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-869233568"/>
+        <c:crossAx val="171045856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14843,7 +14841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-869233568"/>
+        <c:axId val="171045856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14884,7 +14882,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>記述時間（秒</a:t>
+                  <a:t>作成所要時間（秒</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -14950,7 +14948,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060990992"/>
+        <c:crossAx val="171045296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30822,8 +30820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31119,7 +31117,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31677,7 +31675,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31970,7 +31968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -886,11 +886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167830176"/>
-        <c:axId val="170365744"/>
+        <c:axId val="113837360"/>
+        <c:axId val="113837920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167830176"/>
+        <c:axId val="113837360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +993,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170365744"/>
+        <c:crossAx val="113837920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170365744"/>
+        <c:axId val="113837920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1121,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167830176"/>
+        <c:crossAx val="113837360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1245,7 +1245,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t> エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -1484,11 +1484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171571312"/>
-        <c:axId val="171571872"/>
+        <c:axId val="115167328"/>
+        <c:axId val="115167888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171571312"/>
+        <c:axId val="115167328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1591,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171571872"/>
+        <c:crossAx val="115167888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1599,7 +1599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171571872"/>
+        <c:axId val="115167888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1640,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1706,7 +1706,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171571312"/>
+        <c:crossAx val="115167328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1830,7 +1830,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t> エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
@@ -2042,11 +2042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171575232"/>
-        <c:axId val="171575792"/>
+        <c:axId val="115171248"/>
+        <c:axId val="115171808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171575232"/>
+        <c:axId val="115171248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2149,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171575792"/>
+        <c:crossAx val="115171808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2157,7 +2157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171575792"/>
+        <c:axId val="115171808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,7 +2198,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2264,7 +2264,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171575232"/>
+        <c:crossAx val="115171248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2620,11 +2620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171579152"/>
-        <c:axId val="171579712"/>
+        <c:axId val="115469616"/>
+        <c:axId val="115470176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171579152"/>
+        <c:axId val="115469616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +2727,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171579712"/>
+        <c:crossAx val="115470176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2735,7 +2735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171579712"/>
+        <c:axId val="115470176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2851,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171579152"/>
+        <c:crossAx val="115469616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,11 +3081,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171582512"/>
-        <c:axId val="171583072"/>
+        <c:axId val="115472976"/>
+        <c:axId val="115473536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171582512"/>
+        <c:axId val="115472976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,7 +3128,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171583072"/>
+        <c:crossAx val="115473536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3136,7 +3136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171583072"/>
+        <c:axId val="115473536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3243,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171582512"/>
+        <c:crossAx val="115472976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3542,11 +3542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171585872"/>
-        <c:axId val="171586432"/>
+        <c:axId val="115476336"/>
+        <c:axId val="115476896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171585872"/>
+        <c:axId val="115476336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3649,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171586432"/>
+        <c:crossAx val="115476896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3657,7 +3657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171586432"/>
+        <c:axId val="115476896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3764,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171585872"/>
+        <c:crossAx val="115476336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3888,7 +3888,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t> エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -4127,11 +4127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172120096"/>
-        <c:axId val="172120656"/>
+        <c:axId val="115480256"/>
+        <c:axId val="115480816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172120096"/>
+        <c:axId val="115480256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,7 +4234,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172120656"/>
+        <c:crossAx val="115480816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4242,7 +4242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172120656"/>
+        <c:axId val="115480816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,7 +4283,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4349,7 +4349,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172120096"/>
+        <c:crossAx val="115480256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4473,7 +4473,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t> エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
@@ -4685,11 +4685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172124016"/>
-        <c:axId val="172124576"/>
+        <c:axId val="115645120"/>
+        <c:axId val="115645680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172124016"/>
+        <c:axId val="115645120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,7 +4792,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172124576"/>
+        <c:crossAx val="115645680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4800,7 +4800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172124576"/>
+        <c:axId val="115645680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4841,7 +4841,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4907,7 +4907,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172124016"/>
+        <c:crossAx val="115645120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5271,11 +5271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172127936"/>
-        <c:axId val="172128496"/>
+        <c:axId val="115649040"/>
+        <c:axId val="115649600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172127936"/>
+        <c:axId val="115649040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5378,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172128496"/>
+        <c:crossAx val="115649600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5386,7 +5386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172128496"/>
+        <c:axId val="115649600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,7 +5502,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172127936"/>
+        <c:crossAx val="115649040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5732,11 +5732,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="172131296"/>
-        <c:axId val="172131856"/>
+        <c:axId val="116531008"/>
+        <c:axId val="116531568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172131296"/>
+        <c:axId val="116531008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5779,7 +5779,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172131856"/>
+        <c:crossAx val="116531568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5787,7 +5787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172131856"/>
+        <c:axId val="116531568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,7 +5894,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172131296"/>
+        <c:crossAx val="116531008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6193,11 +6193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172545952"/>
-        <c:axId val="172546512"/>
+        <c:axId val="116534368"/>
+        <c:axId val="116534928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172545952"/>
+        <c:axId val="116534368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6300,7 +6300,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172546512"/>
+        <c:crossAx val="116534928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6308,7 +6308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172546512"/>
+        <c:axId val="116534928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6415,7 +6415,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172545952"/>
+        <c:crossAx val="116534368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6649,11 +6649,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="170368544"/>
-        <c:axId val="170369104"/>
+        <c:axId val="113840720"/>
+        <c:axId val="113841280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="170368544"/>
+        <c:axId val="113840720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6696,7 +6696,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170369104"/>
+        <c:crossAx val="113841280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6704,7 +6704,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170369104"/>
+        <c:axId val="113841280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,7 +6823,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170368544"/>
+        <c:crossAx val="113840720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6915,7 +6915,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t> エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -7154,11 +7154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172549872"/>
-        <c:axId val="172550432"/>
+        <c:axId val="116538288"/>
+        <c:axId val="116538848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172549872"/>
+        <c:axId val="116538288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7261,7 +7261,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172550432"/>
+        <c:crossAx val="116538848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7269,7 +7269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172550432"/>
+        <c:axId val="116538848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7310,7 +7310,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7376,7 +7376,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172549872"/>
+        <c:crossAx val="116538288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7500,7 +7500,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t> エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
@@ -7712,11 +7712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172553792"/>
-        <c:axId val="172554352"/>
+        <c:axId val="116542208"/>
+        <c:axId val="116542768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172553792"/>
+        <c:axId val="116542208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7819,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172554352"/>
+        <c:crossAx val="116542768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7827,7 +7827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172554352"/>
+        <c:axId val="116542768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7868,7 +7868,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7934,7 +7934,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172553792"/>
+        <c:crossAx val="116542208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8325,11 +8325,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="172557712"/>
-        <c:axId val="172558272"/>
+        <c:axId val="116546128"/>
+        <c:axId val="116546688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172557712"/>
+        <c:axId val="116546128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8432,7 +8432,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172558272"/>
+        <c:crossAx val="116546688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8440,7 +8440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172558272"/>
+        <c:axId val="116546688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8560,7 +8560,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172557712"/>
+        <c:crossAx val="116546128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8915,11 +8915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172265328"/>
-        <c:axId val="172265888"/>
+        <c:axId val="116889600"/>
+        <c:axId val="116890160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172265328"/>
+        <c:axId val="116889600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9022,7 +9022,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172265888"/>
+        <c:crossAx val="116890160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9030,7 +9030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172265888"/>
+        <c:axId val="116890160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9146,7 +9146,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172265328"/>
+        <c:crossAx val="116889600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9376,11 +9376,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="172268688"/>
-        <c:axId val="172269248"/>
+        <c:axId val="116892960"/>
+        <c:axId val="116893520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172268688"/>
+        <c:axId val="116892960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9423,7 +9423,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172269248"/>
+        <c:crossAx val="116893520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9431,7 +9431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172269248"/>
+        <c:axId val="116893520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9538,7 +9538,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172268688"/>
+        <c:crossAx val="116892960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9837,11 +9837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172272048"/>
-        <c:axId val="172272608"/>
+        <c:axId val="116377024"/>
+        <c:axId val="116377584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172272048"/>
+        <c:axId val="116377024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9944,7 +9944,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172272608"/>
+        <c:crossAx val="116377584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9952,7 +9952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172272608"/>
+        <c:axId val="116377584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10059,7 +10059,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172272048"/>
+        <c:crossAx val="116377024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10183,7 +10183,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t> エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -10422,11 +10422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172275968"/>
-        <c:axId val="172276528"/>
+        <c:axId val="116380944"/>
+        <c:axId val="116381504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172275968"/>
+        <c:axId val="116380944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10529,7 +10529,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172276528"/>
+        <c:crossAx val="116381504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10537,7 +10537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172276528"/>
+        <c:axId val="116381504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10578,7 +10578,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10644,7 +10644,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172275968"/>
+        <c:crossAx val="116380944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10768,7 +10768,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-              <a:t> テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t> エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
@@ -10980,11 +10980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="172279888"/>
-        <c:axId val="172280448"/>
+        <c:axId val="117310064"/>
+        <c:axId val="117310624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="172279888"/>
+        <c:axId val="117310064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11087,7 +11087,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172280448"/>
+        <c:crossAx val="117310624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11095,7 +11095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172280448"/>
+        <c:axId val="117310624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11136,7 +11136,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11202,7 +11202,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172279888"/>
+        <c:crossAx val="117310064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11323,7 +11323,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>数別 テンプレートファイル作成失敗数</a:t>
+              <a:t>数別 エラー発生回数</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -11563,11 +11563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170371904"/>
-        <c:axId val="170372464"/>
+        <c:axId val="113844080"/>
+        <c:axId val="113844640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170371904"/>
+        <c:axId val="113844080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11670,7 +11670,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170372464"/>
+        <c:crossAx val="113844640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11678,7 +11678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170372464"/>
+        <c:axId val="113844640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11719,7 +11719,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗回数</a:t>
+                  <a:t>エラー発生回数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11785,7 +11785,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170371904"/>
+        <c:crossAx val="113844080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12121,11 +12121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170375824"/>
-        <c:axId val="170376384"/>
+        <c:axId val="113848000"/>
+        <c:axId val="113848560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170375824"/>
+        <c:axId val="113848000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12228,7 +12228,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170376384"/>
+        <c:crossAx val="113848560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12236,7 +12236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170376384"/>
+        <c:axId val="113848560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12356,7 +12356,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170375824"/>
+        <c:crossAx val="113848000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12476,7 +12476,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
-              <a:t>数別 テンプレートファイル作成失敗数（被験者</a:t>
+              <a:t>数別 エラー発生回数（被験者</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1200"/>
@@ -12687,11 +12687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170379744"/>
-        <c:axId val="170380304"/>
+        <c:axId val="113851920"/>
+        <c:axId val="114712704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170379744"/>
+        <c:axId val="113851920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12794,7 +12794,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170380304"/>
+        <c:crossAx val="114712704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12802,7 +12802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170380304"/>
+        <c:axId val="114712704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12843,7 +12843,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>作成失敗数</a:t>
+                  <a:t>エラー発生数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -12909,7 +12909,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170379744"/>
+        <c:crossAx val="113851920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -13213,11 +13213,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171034656"/>
-        <c:axId val="171035216"/>
+        <c:axId val="114716064"/>
+        <c:axId val="114716624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171034656"/>
+        <c:axId val="114716064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13320,7 +13320,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171035216"/>
+        <c:crossAx val="114716624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13328,7 +13328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171035216"/>
+        <c:axId val="114716624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13448,7 +13448,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171034656"/>
+        <c:crossAx val="114716064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13803,11 +13803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171038576"/>
-        <c:axId val="171039136"/>
+        <c:axId val="114719984"/>
+        <c:axId val="114925232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171038576"/>
+        <c:axId val="114719984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13911,7 +13911,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171039136"/>
+        <c:crossAx val="114925232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13919,7 +13919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171039136"/>
+        <c:axId val="114925232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14035,7 +14035,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171038576"/>
+        <c:crossAx val="114719984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14265,11 +14265,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171041936"/>
-        <c:axId val="171042496"/>
+        <c:axId val="114928032"/>
+        <c:axId val="114928592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171041936"/>
+        <c:axId val="114928032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14312,7 +14312,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171042496"/>
+        <c:crossAx val="114928592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14320,7 +14320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171042496"/>
+        <c:axId val="114928592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14427,7 +14427,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171041936"/>
+        <c:crossAx val="114928032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14726,11 +14726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171045296"/>
-        <c:axId val="171045856"/>
+        <c:axId val="114931392"/>
+        <c:axId val="114931952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171045296"/>
+        <c:axId val="114931392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14833,7 +14833,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171045856"/>
+        <c:crossAx val="114931952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14841,7 +14841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171045856"/>
+        <c:axId val="114931952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14948,7 +14948,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171045296"/>
+        <c:crossAx val="114931392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30328,15 +30328,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30820,8 +30820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31116,8 +31116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31385,7 +31385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -31674,8 +31676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31968,8 +31970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GUIToolLocalrepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\貴大\Documents\構成マップ見た目\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="別役データ" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="船越データ" sheetId="3" r:id="rId3"/>
     <sheet name="濱田データ" sheetId="6" r:id="rId4"/>
     <sheet name="川村データ" sheetId="7" r:id="rId5"/>
+    <sheet name="論文掲載用データ" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>手動入力（秒）</t>
     <rPh sb="0" eb="4">
@@ -489,6 +490,43 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>オーケストレーション定義エディタ(秒)</t>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従来方式(秒)</t>
+    <rPh sb="0" eb="4">
+      <t>ジュウライホウシキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -886,11 +924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113837360"/>
-        <c:axId val="113837920"/>
+        <c:axId val="2039299936"/>
+        <c:axId val="2039301568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113837360"/>
+        <c:axId val="2039299936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1031,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113837920"/>
+        <c:crossAx val="2039301568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1001,7 +1039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113837920"/>
+        <c:axId val="2039301568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1159,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113837360"/>
+        <c:crossAx val="2039299936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,11 +1522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115167328"/>
-        <c:axId val="115167888"/>
+        <c:axId val="2043579488"/>
+        <c:axId val="2043581120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115167328"/>
+        <c:axId val="2043579488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1629,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115167888"/>
+        <c:crossAx val="2043581120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1599,7 +1637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115167888"/>
+        <c:axId val="2043581120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,7 +1744,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115167328"/>
+        <c:crossAx val="2043579488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,11 +2080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115171248"/>
-        <c:axId val="115171808"/>
+        <c:axId val="2043569152"/>
+        <c:axId val="2043578400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115171248"/>
+        <c:axId val="2043569152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2187,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115171808"/>
+        <c:crossAx val="2043578400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2157,7 +2195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115171808"/>
+        <c:axId val="2043578400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2302,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115171248"/>
+        <c:crossAx val="2043569152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2620,11 +2658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115469616"/>
-        <c:axId val="115470176"/>
+        <c:axId val="2043574048"/>
+        <c:axId val="2043570240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115469616"/>
+        <c:axId val="2043574048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +2765,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115470176"/>
+        <c:crossAx val="2043570240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2735,7 +2773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115470176"/>
+        <c:axId val="2043570240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2889,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115469616"/>
+        <c:crossAx val="2043574048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,11 +3119,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="115472976"/>
-        <c:axId val="115473536"/>
+        <c:axId val="2044064048"/>
+        <c:axId val="2044074384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115472976"/>
+        <c:axId val="2044064048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3128,7 +3166,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115473536"/>
+        <c:crossAx val="2044074384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3136,7 +3174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115473536"/>
+        <c:axId val="2044074384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,7 +3281,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115472976"/>
+        <c:crossAx val="2044064048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3542,11 +3580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115476336"/>
-        <c:axId val="115476896"/>
+        <c:axId val="2044066224"/>
+        <c:axId val="2044071120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115476336"/>
+        <c:axId val="2044066224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,7 +3687,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115476896"/>
+        <c:crossAx val="2044071120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3657,7 +3695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115476896"/>
+        <c:axId val="2044071120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3802,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115476336"/>
+        <c:crossAx val="2044066224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4127,11 +4165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115480256"/>
-        <c:axId val="115480816"/>
+        <c:axId val="2044060784"/>
+        <c:axId val="2044063504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115480256"/>
+        <c:axId val="2044060784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,7 +4272,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115480816"/>
+        <c:crossAx val="2044063504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4242,7 +4280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115480816"/>
+        <c:axId val="2044063504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4349,7 +4387,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115480256"/>
+        <c:crossAx val="2044060784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4685,11 +4723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115645120"/>
-        <c:axId val="115645680"/>
+        <c:axId val="2044060240"/>
+        <c:axId val="2044059696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115645120"/>
+        <c:axId val="2044060240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,7 +4830,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115645680"/>
+        <c:crossAx val="2044059696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4800,7 +4838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115645680"/>
+        <c:axId val="2044059696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4907,7 +4945,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115645120"/>
+        <c:crossAx val="2044060240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5271,11 +5309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115649040"/>
-        <c:axId val="115649600"/>
+        <c:axId val="2044062960"/>
+        <c:axId val="2044061328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115649040"/>
+        <c:axId val="2044062960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5416,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115649600"/>
+        <c:crossAx val="2044061328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5386,7 +5424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115649600"/>
+        <c:axId val="2044061328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,7 +5540,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115649040"/>
+        <c:crossAx val="2044062960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5732,11 +5770,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="116531008"/>
-        <c:axId val="116531568"/>
+        <c:axId val="2044065136"/>
+        <c:axId val="2044071664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116531008"/>
+        <c:axId val="2044065136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5779,7 +5817,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116531568"/>
+        <c:crossAx val="2044071664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5787,7 +5825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116531568"/>
+        <c:axId val="2044071664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,7 +5932,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116531008"/>
+        <c:crossAx val="2044065136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6193,11 +6231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116534368"/>
-        <c:axId val="116534928"/>
+        <c:axId val="2044067856"/>
+        <c:axId val="2044068400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116534368"/>
+        <c:axId val="2044067856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6300,7 +6338,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116534928"/>
+        <c:crossAx val="2044068400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6308,7 +6346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116534928"/>
+        <c:axId val="2044068400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6415,7 +6453,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116534368"/>
+        <c:crossAx val="2044067856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6649,11 +6687,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="113840720"/>
-        <c:axId val="113841280"/>
+        <c:axId val="2039302112"/>
+        <c:axId val="2039304288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113840720"/>
+        <c:axId val="2039302112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6696,7 +6734,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113841280"/>
+        <c:crossAx val="2039304288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6704,7 +6742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113841280"/>
+        <c:axId val="2039304288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,7 +6861,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113840720"/>
+        <c:crossAx val="2039302112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7154,11 +7192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116538288"/>
-        <c:axId val="116538848"/>
+        <c:axId val="2044937168"/>
+        <c:axId val="2044942064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116538288"/>
+        <c:axId val="2044937168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7261,7 +7299,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116538848"/>
+        <c:crossAx val="2044942064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7269,7 +7307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116538848"/>
+        <c:axId val="2044942064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7376,7 +7414,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116538288"/>
+        <c:crossAx val="2044937168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7712,11 +7750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116542208"/>
-        <c:axId val="116542768"/>
+        <c:axId val="2044939888"/>
+        <c:axId val="2044933904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116542208"/>
+        <c:axId val="2044939888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7857,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116542768"/>
+        <c:crossAx val="2044933904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7827,7 +7865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116542768"/>
+        <c:axId val="2044933904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7934,7 +7972,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116542208"/>
+        <c:crossAx val="2044939888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8138,7 +8176,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8325,11 +8362,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="116546128"/>
-        <c:axId val="116546688"/>
+        <c:axId val="2044942608"/>
+        <c:axId val="2044934992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116546128"/>
+        <c:axId val="2044942608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8365,7 +8402,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8432,7 +8468,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116546688"/>
+        <c:crossAx val="2044934992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8440,7 +8476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116546688"/>
+        <c:axId val="2044934992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8499,7 +8535,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8560,7 +8595,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116546128"/>
+        <c:crossAx val="2044942608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8574,7 +8609,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8915,11 +8949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116889600"/>
-        <c:axId val="116890160"/>
+        <c:axId val="2044940976"/>
+        <c:axId val="2044932816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116889600"/>
+        <c:axId val="2044940976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9022,7 +9056,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116890160"/>
+        <c:crossAx val="2044932816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9030,7 +9064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116890160"/>
+        <c:axId val="2044932816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9146,7 +9180,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116889600"/>
+        <c:crossAx val="2044940976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9376,11 +9410,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="116892960"/>
-        <c:axId val="116893520"/>
+        <c:axId val="2044939344"/>
+        <c:axId val="2044944240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116892960"/>
+        <c:axId val="2044939344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9423,7 +9457,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116893520"/>
+        <c:crossAx val="2044944240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9431,7 +9465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116893520"/>
+        <c:axId val="2044944240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9538,7 +9572,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116892960"/>
+        <c:crossAx val="2044939344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9837,11 +9871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116377024"/>
-        <c:axId val="116377584"/>
+        <c:axId val="2044941520"/>
+        <c:axId val="2044938800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116377024"/>
+        <c:axId val="2044941520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9944,7 +9978,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116377584"/>
+        <c:crossAx val="2044938800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9952,7 +9986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116377584"/>
+        <c:axId val="2044938800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10059,7 +10093,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116377024"/>
+        <c:crossAx val="2044941520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10422,11 +10456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116380944"/>
-        <c:axId val="116381504"/>
+        <c:axId val="2044943152"/>
+        <c:axId val="2044930640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116380944"/>
+        <c:axId val="2044943152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10529,7 +10563,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116381504"/>
+        <c:crossAx val="2044930640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10537,7 +10571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116381504"/>
+        <c:axId val="2044930640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10644,7 +10678,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116380944"/>
+        <c:crossAx val="2044943152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10980,11 +11014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117310064"/>
-        <c:axId val="117310624"/>
+        <c:axId val="2044932272"/>
+        <c:axId val="2045807872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117310064"/>
+        <c:axId val="2044932272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11087,7 +11121,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117310624"/>
+        <c:crossAx val="2045807872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11095,7 +11129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117310624"/>
+        <c:axId val="2045807872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11202,10 +11236,560 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117310064"/>
+        <c:crossAx val="2044932272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+              <a:t>３セグメント５インスタンス構成におけるテンプレートファイル作成所要時間</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>オーケストレーション定義エディタ(秒)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>従来方式(秒)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1850223792"/>
+        <c:axId val="1850218896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1850223792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>被験者</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1850218896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1850218896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>テンプレートファイル作成所要時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1850223792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -11563,11 +12147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113844080"/>
-        <c:axId val="113844640"/>
+        <c:axId val="2039306464"/>
+        <c:axId val="2039305376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113844080"/>
+        <c:axId val="2039306464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11670,7 +12254,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113844640"/>
+        <c:crossAx val="2039305376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11678,7 +12262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113844640"/>
+        <c:axId val="2039305376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11785,7 +12369,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113844080"/>
+        <c:crossAx val="2039306464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12121,11 +12705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113848000"/>
-        <c:axId val="113848560"/>
+        <c:axId val="2039305920"/>
+        <c:axId val="2039307008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113848000"/>
+        <c:axId val="2039305920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12228,7 +12812,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113848560"/>
+        <c:crossAx val="2039307008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12236,7 +12820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113848560"/>
+        <c:axId val="2039307008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12356,7 +12940,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113848000"/>
+        <c:crossAx val="2039305920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12687,11 +13271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113851920"/>
-        <c:axId val="114712704"/>
+        <c:axId val="2039295040"/>
+        <c:axId val="2039296128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113851920"/>
+        <c:axId val="2039295040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12794,7 +13378,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114712704"/>
+        <c:crossAx val="2039296128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12802,7 +13386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114712704"/>
+        <c:axId val="2039296128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12909,7 +13493,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113851920"/>
+        <c:crossAx val="2039295040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -13213,11 +13797,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114716064"/>
-        <c:axId val="114716624"/>
+        <c:axId val="2039298304"/>
+        <c:axId val="2039298848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114716064"/>
+        <c:axId val="2039298304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13320,7 +13904,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114716624"/>
+        <c:crossAx val="2039298848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13328,7 +13912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114716624"/>
+        <c:axId val="2039298848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13448,7 +14032,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114716064"/>
+        <c:crossAx val="2039298304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13803,11 +14387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114719984"/>
-        <c:axId val="114925232"/>
+        <c:axId val="2043568064"/>
+        <c:axId val="2043575680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114719984"/>
+        <c:axId val="2043568064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13911,7 +14495,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114925232"/>
+        <c:crossAx val="2043575680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13919,7 +14503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114925232"/>
+        <c:axId val="2043575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14035,7 +14619,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114719984"/>
+        <c:crossAx val="2043568064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14265,11 +14849,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114928032"/>
-        <c:axId val="114928592"/>
+        <c:axId val="2043572960"/>
+        <c:axId val="2043582752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114928032"/>
+        <c:axId val="2043572960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14312,7 +14896,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114928592"/>
+        <c:crossAx val="2043582752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14320,7 +14904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114928592"/>
+        <c:axId val="2043582752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14427,7 +15011,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114928032"/>
+        <c:crossAx val="2043572960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14726,11 +15310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114931392"/>
-        <c:axId val="114931952"/>
+        <c:axId val="2043582208"/>
+        <c:axId val="2043578944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114931392"/>
+        <c:axId val="2043582208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14833,7 +15417,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114931952"/>
+        <c:crossAx val="2043578944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14841,7 +15425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114931952"/>
+        <c:axId val="2043578944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14948,7 +15532,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114931392"/>
+        <c:crossAx val="2043582208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15829,6 +16413,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -25668,6 +26292,509 @@
 
 <file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -30555,6 +31682,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -30820,8 +31982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31116,8 +32278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31385,8 +32547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31677,7 +32839,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="K5" sqref="K5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31970,8 +33132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32233,4 +33395,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1">
+        <f>120+40</f>
+        <v>160</v>
+      </c>
+      <c r="D2" s="2">
+        <f>11*60</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <f>2*60+40</f>
+        <v>160</v>
+      </c>
+      <c r="D3" s="1">
+        <f>12*60+10</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <f>2*60+42</f>
+        <v>162</v>
+      </c>
+      <c r="D4" s="1">
+        <f>49*60+50</f>
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1">
+        <f>2*60+25</f>
+        <v>145</v>
+      </c>
+      <c r="D5" s="1">
+        <f>32*60+26</f>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1">
+        <f>3*60+49</f>
+        <v>229</v>
+      </c>
+      <c r="D6" s="1">
+        <f>19*60+51</f>
+        <v>1191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>手動入力（秒）</t>
     <rPh sb="0" eb="4">
@@ -527,6 +527,78 @@
     <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>被験者A</t>
+    <rPh sb="0" eb="3">
+      <t>ヒケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被験者C</t>
+    <rPh sb="0" eb="3">
+      <t>ヒケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AとC比較</t>
+    <rPh sb="3" eb="5">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Router数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動入力-A(秒)</t>
+    <rPh sb="0" eb="4">
+      <t>シュドウニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動入力-C(秒)</t>
+    <rPh sb="0" eb="4">
+      <t>シュドウニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーケストレーション定義エディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーケストレーション定義エディタ使用-A(秒)</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーケストレーション定義エディタ使用-C(秒)</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -924,11 +996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2039299936"/>
-        <c:axId val="2039301568"/>
+        <c:axId val="-430857312"/>
+        <c:axId val="-430872000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2039299936"/>
+        <c:axId val="-430857312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1103,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039301568"/>
+        <c:crossAx val="-430872000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1039,7 +1111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039301568"/>
+        <c:axId val="-430872000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1231,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039299936"/>
+        <c:crossAx val="-430857312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,11 +1594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2043579488"/>
-        <c:axId val="2043581120"/>
+        <c:axId val="-372467456"/>
+        <c:axId val="-372466912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043579488"/>
+        <c:axId val="-372467456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1701,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043581120"/>
+        <c:crossAx val="-372466912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1637,7 +1709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043581120"/>
+        <c:axId val="-372466912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1816,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043579488"/>
+        <c:crossAx val="-372467456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2080,11 +2152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2043569152"/>
-        <c:axId val="2043578400"/>
+        <c:axId val="-372466368"/>
+        <c:axId val="-372465824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043569152"/>
+        <c:axId val="-372466368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2259,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043578400"/>
+        <c:crossAx val="-372465824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2195,7 +2267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043578400"/>
+        <c:axId val="-372465824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2374,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043569152"/>
+        <c:crossAx val="-372466368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2658,11 +2730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2043574048"/>
-        <c:axId val="2043570240"/>
+        <c:axId val="-370647104"/>
+        <c:axId val="-370661248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043574048"/>
+        <c:axId val="-370647104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,7 +2837,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043570240"/>
+        <c:crossAx val="-370661248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2773,7 +2845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043570240"/>
+        <c:axId val="-370661248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,7 +2961,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043574048"/>
+        <c:crossAx val="-370647104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3119,11 +3191,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2044064048"/>
-        <c:axId val="2044074384"/>
+        <c:axId val="-370655264"/>
+        <c:axId val="-370659072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2044064048"/>
+        <c:axId val="-370655264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3238,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044074384"/>
+        <c:crossAx val="-370659072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3174,7 +3246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044074384"/>
+        <c:axId val="-370659072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3353,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044064048"/>
+        <c:crossAx val="-370655264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3580,11 +3652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044066224"/>
-        <c:axId val="2044071120"/>
+        <c:axId val="-370656896"/>
+        <c:axId val="-370654720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044066224"/>
+        <c:axId val="-370656896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3687,7 +3759,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044071120"/>
+        <c:crossAx val="-370654720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3695,7 +3767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044071120"/>
+        <c:axId val="-370654720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +3874,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044066224"/>
+        <c:crossAx val="-370656896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4165,11 +4237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044060784"/>
-        <c:axId val="2044063504"/>
+        <c:axId val="-370650368"/>
+        <c:axId val="-370654176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044060784"/>
+        <c:axId val="-370650368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4272,7 +4344,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044063504"/>
+        <c:crossAx val="-370654176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4280,7 +4352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044063504"/>
+        <c:axId val="-370654176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4387,7 +4459,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044060784"/>
+        <c:crossAx val="-370650368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4723,11 +4795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044060240"/>
-        <c:axId val="2044059696"/>
+        <c:axId val="-370660704"/>
+        <c:axId val="-370657984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044060240"/>
+        <c:axId val="-370660704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4830,7 +4902,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044059696"/>
+        <c:crossAx val="-370657984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4838,7 +4910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044059696"/>
+        <c:axId val="-370657984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4945,7 +5017,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044060240"/>
+        <c:crossAx val="-370660704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5087,7 +5159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5309,11 +5380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044062960"/>
-        <c:axId val="2044061328"/>
+        <c:axId val="-370648192"/>
+        <c:axId val="-370652544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044062960"/>
+        <c:axId val="-370648192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,7 +5420,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5416,7 +5486,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044061328"/>
+        <c:crossAx val="-370652544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5424,7 +5494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044061328"/>
+        <c:axId val="-370652544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5479,7 +5549,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5540,7 +5609,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044062960"/>
+        <c:crossAx val="-370648192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5554,7 +5623,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5669,7 +5737,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5770,11 +5837,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2044065136"/>
-        <c:axId val="2044071664"/>
+        <c:axId val="-370649280"/>
+        <c:axId val="-370650912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2044065136"/>
+        <c:axId val="-370649280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5817,7 +5884,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044071664"/>
+        <c:crossAx val="-370650912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5825,7 +5892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044071664"/>
+        <c:axId val="-370650912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5871,7 +5938,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5932,7 +5998,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044065136"/>
+        <c:crossAx val="-370649280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6033,7 +6099,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6231,11 +6296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044067856"/>
-        <c:axId val="2044068400"/>
+        <c:axId val="-371486048"/>
+        <c:axId val="-371499104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044067856"/>
+        <c:axId val="-371486048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6271,7 +6336,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6338,7 +6402,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044068400"/>
+        <c:crossAx val="-371499104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6346,7 +6410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044068400"/>
+        <c:axId val="-371499104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6392,7 +6456,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6453,7 +6516,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044067856"/>
+        <c:crossAx val="-371486048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6467,7 +6530,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6687,11 +6749,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2039302112"/>
-        <c:axId val="2039304288"/>
+        <c:axId val="-430862752"/>
+        <c:axId val="-430872544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2039302112"/>
+        <c:axId val="-430862752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6734,7 +6796,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039304288"/>
+        <c:crossAx val="-430872544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6742,7 +6804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039304288"/>
+        <c:axId val="-430872544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6861,7 +6923,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039302112"/>
+        <c:crossAx val="-430862752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6970,7 +7032,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7192,11 +7253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044937168"/>
-        <c:axId val="2044942064"/>
+        <c:axId val="-371499648"/>
+        <c:axId val="-371498560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044937168"/>
+        <c:axId val="-371499648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7232,7 +7293,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7299,7 +7359,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044942064"/>
+        <c:crossAx val="-371498560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7307,7 +7367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044942064"/>
+        <c:axId val="-371498560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7353,7 +7413,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7414,7 +7473,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044937168"/>
+        <c:crossAx val="-371499648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7428,7 +7487,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7552,7 +7610,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7750,11 +7807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044939888"/>
-        <c:axId val="2044933904"/>
+        <c:axId val="-371491488"/>
+        <c:axId val="-371490400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044939888"/>
+        <c:axId val="-371491488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7790,7 +7847,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7857,7 +7913,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044933904"/>
+        <c:crossAx val="-371490400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7865,7 +7921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044933904"/>
+        <c:axId val="-371490400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7911,7 +7967,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7972,7 +8027,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044939888"/>
+        <c:crossAx val="-371491488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -7987,7 +8042,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8362,11 +8416,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2044942608"/>
-        <c:axId val="2044934992"/>
+        <c:axId val="-371496384"/>
+        <c:axId val="-371495840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2044942608"/>
+        <c:axId val="-371496384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8468,7 +8522,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044934992"/>
+        <c:crossAx val="-371495840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8476,7 +8530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044934992"/>
+        <c:axId val="-371495840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8595,7 +8649,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044942608"/>
+        <c:crossAx val="-371496384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8727,7 +8781,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8949,11 +9002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044940976"/>
-        <c:axId val="2044932816"/>
+        <c:axId val="-371494208"/>
+        <c:axId val="-371492576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044940976"/>
+        <c:axId val="-371494208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8989,7 +9042,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9056,7 +9108,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044932816"/>
+        <c:crossAx val="-371492576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9064,7 +9116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044932816"/>
+        <c:axId val="-371492576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9119,7 +9171,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9180,7 +9231,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044940976"/>
+        <c:crossAx val="-371494208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9194,7 +9245,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9309,7 +9359,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9410,11 +9459,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2044939344"/>
-        <c:axId val="2044944240"/>
+        <c:axId val="-371484960"/>
+        <c:axId val="-371489856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2044939344"/>
+        <c:axId val="-371484960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9457,7 +9506,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044944240"/>
+        <c:crossAx val="-371489856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9465,7 +9514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044944240"/>
+        <c:axId val="-371489856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9511,7 +9560,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9572,7 +9620,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044939344"/>
+        <c:crossAx val="-371484960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9673,7 +9721,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9871,11 +9918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044941520"/>
-        <c:axId val="2044938800"/>
+        <c:axId val="-371488768"/>
+        <c:axId val="-371488224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044941520"/>
+        <c:axId val="-371488768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9911,7 +9958,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9978,7 +10024,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044938800"/>
+        <c:crossAx val="-371488224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9986,7 +10032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044938800"/>
+        <c:axId val="-371488224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10032,7 +10078,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10093,7 +10138,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044941520"/>
+        <c:crossAx val="-371488768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10107,7 +10152,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10234,7 +10278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10456,11 +10499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044943152"/>
-        <c:axId val="2044930640"/>
+        <c:axId val="-369533040"/>
+        <c:axId val="-369541744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044943152"/>
+        <c:axId val="-369533040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10496,7 +10539,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10563,7 +10605,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044930640"/>
+        <c:crossAx val="-369541744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10571,7 +10613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2044930640"/>
+        <c:axId val="-369541744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10617,7 +10659,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10678,7 +10719,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044943152"/>
+        <c:crossAx val="-369533040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10692,7 +10733,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10816,7 +10856,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11014,11 +11053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2044932272"/>
-        <c:axId val="2045807872"/>
+        <c:axId val="-369543376"/>
+        <c:axId val="-369542832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2044932272"/>
+        <c:axId val="-369543376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11054,7 +11093,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11121,7 +11159,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2045807872"/>
+        <c:crossAx val="-369542832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11129,7 +11167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2045807872"/>
+        <c:axId val="-369542832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11175,7 +11213,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11236,7 +11273,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2044932272"/>
+        <c:crossAx val="-369543376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11251,7 +11288,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11556,11 +11592,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1850223792"/>
-        <c:axId val="1850218896"/>
+        <c:axId val="-369532496"/>
+        <c:axId val="-369539568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1850223792"/>
+        <c:axId val="-369532496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11659,7 +11695,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850218896"/>
+        <c:crossAx val="-369539568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11667,7 +11703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1850218896"/>
+        <c:axId val="-369539568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11787,7 +11823,614 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850223792"/>
+        <c:crossAx val="-369532496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>従来方式手動入力による作成所要時間比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>手動入力-A(秒)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$C$32:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>手動入力-C(秒)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$D$32:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-618084624"/>
+        <c:axId val="-618087888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-618084624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>セグメント数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-618087888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-618087888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>作成所要時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-618084624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12147,11 +12790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2039306464"/>
-        <c:axId val="2039305376"/>
+        <c:axId val="-430867104"/>
+        <c:axId val="-430861120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2039306464"/>
+        <c:axId val="-430867104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12254,7 +12897,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039305376"/>
+        <c:crossAx val="-430861120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12262,7 +12905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039305376"/>
+        <c:axId val="-430861120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12369,7 +13012,614 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039306464"/>
+        <c:crossAx val="-430867104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>オーケストレーション定義エディタによる作成所要時間比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>オーケストレーション定義エディタ使用-A(秒)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$I$32:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$J$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>オーケストレーション定義エディタ使用-C(秒)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$J$32:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-559546320"/>
+        <c:axId val="-559540880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-559546320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>セグメント数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-559540880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-559540880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>作成所要時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-559546320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12705,11 +13955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2039305920"/>
-        <c:axId val="2039307008"/>
+        <c:axId val="-430866560"/>
+        <c:axId val="-430859488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2039305920"/>
+        <c:axId val="-430866560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12812,7 +14062,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039307008"/>
+        <c:crossAx val="-430859488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12820,7 +14070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039307008"/>
+        <c:axId val="-430859488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12940,7 +14190,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039305920"/>
+        <c:crossAx val="-430866560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13271,11 +14521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2039295040"/>
-        <c:axId val="2039296128"/>
+        <c:axId val="-372465280"/>
+        <c:axId val="-372460928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2039295040"/>
+        <c:axId val="-372465280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13378,7 +14628,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039296128"/>
+        <c:crossAx val="-372460928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13386,7 +14636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039296128"/>
+        <c:axId val="-372460928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13493,7 +14743,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039295040"/>
+        <c:crossAx val="-372465280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -13797,11 +15047,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2039298304"/>
-        <c:axId val="2039298848"/>
+        <c:axId val="-372463104"/>
+        <c:axId val="-372462560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2039298304"/>
+        <c:axId val="-372463104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13904,7 +15154,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039298848"/>
+        <c:crossAx val="-372462560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13912,7 +15162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039298848"/>
+        <c:axId val="-372462560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14032,7 +15282,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039298304"/>
+        <c:crossAx val="-372463104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14387,11 +15637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2043568064"/>
-        <c:axId val="2043575680"/>
+        <c:axId val="-372464736"/>
+        <c:axId val="-372456576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043568064"/>
+        <c:axId val="-372464736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14495,7 +15745,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043575680"/>
+        <c:crossAx val="-372456576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14503,7 +15753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043575680"/>
+        <c:axId val="-372456576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14619,7 +15869,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043568064"/>
+        <c:crossAx val="-372464736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14849,11 +16099,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2043572960"/>
-        <c:axId val="2043582752"/>
+        <c:axId val="-372453856"/>
+        <c:axId val="-372459840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2043572960"/>
+        <c:axId val="-372453856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14896,7 +16146,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043582752"/>
+        <c:crossAx val="-372459840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14904,7 +16154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043582752"/>
+        <c:axId val="-372459840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15011,7 +16261,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043572960"/>
+        <c:crossAx val="-372453856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15310,11 +16560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2043582208"/>
-        <c:axId val="2043578944"/>
+        <c:axId val="-372458752"/>
+        <c:axId val="-372456032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2043582208"/>
+        <c:axId val="-372458752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15417,7 +16667,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043578944"/>
+        <c:crossAx val="-372456032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15425,7 +16675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043578944"/>
+        <c:axId val="-372456032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15532,7 +16782,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043582208"/>
+        <c:crossAx val="-372458752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16453,7 +17703,87 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -27296,8 +28626,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -27405,6 +28735,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -27415,6 +28750,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -27446,6 +28786,1028 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -31714,6 +34076,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -31982,8 +34404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:N5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32548,7 +34970,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:M5"/>
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33399,16 +35821,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D6"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="0.625" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="10" max="10" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.15">
@@ -33482,6 +35910,200 @@
       <c r="D6" s="1">
         <f>19*60+51</f>
         <v>1191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>105</v>
+      </c>
+      <c r="D26" s="2">
+        <v>485</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <f>60+46</f>
+        <v>106</v>
+      </c>
+      <c r="J26" s="1">
+        <f>25*60+32</f>
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <f>60+53</f>
+        <v>113</v>
+      </c>
+      <c r="D27" s="2">
+        <f>9*60+54</f>
+        <v>594</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <f>3*60+48</f>
+        <v>228</v>
+      </c>
+      <c r="J27" s="1">
+        <f>34*60+30</f>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <f>120+40</f>
+        <v>160</v>
+      </c>
+      <c r="D28" s="2">
+        <f>11*60</f>
+        <v>660</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <f>2*60+42</f>
+        <v>162</v>
+      </c>
+      <c r="J28" s="1">
+        <f>49*60+50</f>
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <f>D26</f>
+        <v>485</v>
+      </c>
+      <c r="D32" s="1">
+        <f>J26</f>
+        <v>1532</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <f>C26</f>
+        <v>105</v>
+      </c>
+      <c r="J32" s="1">
+        <f>I26</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <f>D27</f>
+        <v>594</v>
+      </c>
+      <c r="D33" s="1">
+        <f>J27</f>
+        <v>2070</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <f>C27</f>
+        <v>113</v>
+      </c>
+      <c r="J33" s="1">
+        <f>I27</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <f>D28</f>
+        <v>660</v>
+      </c>
+      <c r="D34" s="1">
+        <f>J28</f>
+        <v>2990</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1">
+        <f>C28</f>
+        <v>160</v>
+      </c>
+      <c r="J34" s="1">
+        <f>I28</f>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
   <si>
     <t>手動入力（秒）</t>
     <rPh sb="0" eb="4">
@@ -599,6 +599,95 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Aエラー数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bエラー数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cエラー数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dエラー数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eエラー数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー数まとめ</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ⅰ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ⅱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ⅲ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ⅳ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ⅴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -996,11 +1085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-430857312"/>
-        <c:axId val="-430872000"/>
+        <c:axId val="365405936"/>
+        <c:axId val="365415184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-430857312"/>
+        <c:axId val="365405936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1192,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-430872000"/>
+        <c:crossAx val="365415184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1111,7 +1200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-430872000"/>
+        <c:axId val="365415184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1320,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-430857312"/>
+        <c:crossAx val="365405936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,11 +1683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-372467456"/>
-        <c:axId val="-372466912"/>
+        <c:axId val="435725728"/>
+        <c:axId val="435721376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-372467456"/>
+        <c:axId val="435725728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1701,7 +1790,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372466912"/>
+        <c:crossAx val="435721376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1709,7 +1798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-372466912"/>
+        <c:axId val="435721376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +1905,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372467456"/>
+        <c:crossAx val="435725728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2152,11 +2241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-372466368"/>
-        <c:axId val="-372465824"/>
+        <c:axId val="366981824"/>
+        <c:axId val="366983456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-372466368"/>
+        <c:axId val="366981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2348,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372465824"/>
+        <c:crossAx val="366983456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-372465824"/>
+        <c:axId val="366983456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2463,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372466368"/>
+        <c:crossAx val="366981824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2730,11 +2819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370647104"/>
-        <c:axId val="-370661248"/>
+        <c:axId val="366980192"/>
+        <c:axId val="366982368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370647104"/>
+        <c:axId val="366980192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +2926,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370661248"/>
+        <c:crossAx val="366982368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2845,7 +2934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370661248"/>
+        <c:axId val="366982368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,7 +3050,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370647104"/>
+        <c:crossAx val="366980192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3191,11 +3280,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-370655264"/>
-        <c:axId val="-370659072"/>
+        <c:axId val="366984544"/>
+        <c:axId val="366979648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-370655264"/>
+        <c:axId val="366984544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3238,7 +3327,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370659072"/>
+        <c:crossAx val="366979648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3246,7 +3335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370659072"/>
+        <c:axId val="366979648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3442,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370655264"/>
+        <c:crossAx val="366984544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3652,11 +3741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370656896"/>
-        <c:axId val="-370654720"/>
+        <c:axId val="38238144"/>
+        <c:axId val="38240320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370656896"/>
+        <c:axId val="38238144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,7 +3848,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370654720"/>
+        <c:crossAx val="38240320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3767,7 +3856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370654720"/>
+        <c:axId val="38240320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,7 +3963,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370656896"/>
+        <c:crossAx val="38238144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4237,11 +4326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370650368"/>
-        <c:axId val="-370654176"/>
+        <c:axId val="38242496"/>
+        <c:axId val="38243040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370650368"/>
+        <c:axId val="38242496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,7 +4433,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370654176"/>
+        <c:crossAx val="38243040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4352,7 +4441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370654176"/>
+        <c:axId val="38243040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,7 +4548,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370650368"/>
+        <c:crossAx val="38242496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4795,11 +4884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370660704"/>
-        <c:axId val="-370657984"/>
+        <c:axId val="38240864"/>
+        <c:axId val="38244128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370660704"/>
+        <c:axId val="38240864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4902,7 +4991,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370657984"/>
+        <c:crossAx val="38244128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4910,7 +4999,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370657984"/>
+        <c:axId val="38244128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,7 +5106,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370660704"/>
+        <c:crossAx val="38240864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5159,6 +5248,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5380,11 +5470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-370648192"/>
-        <c:axId val="-370652544"/>
+        <c:axId val="439339264"/>
+        <c:axId val="439338176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-370648192"/>
+        <c:axId val="439339264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,6 +5510,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5486,7 +5577,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370652544"/>
+        <c:crossAx val="439338176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5494,7 +5585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370652544"/>
+        <c:axId val="439338176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5549,6 +5640,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5609,7 +5701,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370648192"/>
+        <c:crossAx val="439339264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5623,6 +5715,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5837,11 +5930,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-370649280"/>
-        <c:axId val="-370650912"/>
+        <c:axId val="439340352"/>
+        <c:axId val="439337088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-370649280"/>
+        <c:axId val="439340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5884,7 +5977,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370650912"/>
+        <c:crossAx val="439337088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5892,7 +5985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370650912"/>
+        <c:axId val="439337088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5998,7 +6091,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370649280"/>
+        <c:crossAx val="439340352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6099,6 +6192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6296,11 +6390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-371486048"/>
-        <c:axId val="-371499104"/>
+        <c:axId val="326994208"/>
+        <c:axId val="326998016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-371486048"/>
+        <c:axId val="326994208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,6 +6430,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6402,7 +6497,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371499104"/>
+        <c:crossAx val="326998016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6410,7 +6505,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-371499104"/>
+        <c:axId val="326998016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6456,6 +6551,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6516,7 +6612,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371486048"/>
+        <c:crossAx val="326994208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6530,6 +6626,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6749,11 +6846,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-430862752"/>
-        <c:axId val="-430872544"/>
+        <c:axId val="365418992"/>
+        <c:axId val="365408112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-430862752"/>
+        <c:axId val="365418992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6796,7 +6893,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-430872544"/>
+        <c:crossAx val="365408112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6804,7 +6901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-430872544"/>
+        <c:axId val="365408112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6923,7 +7020,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-430862752"/>
+        <c:crossAx val="365418992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7032,6 +7129,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7253,11 +7351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-371499648"/>
-        <c:axId val="-371498560"/>
+        <c:axId val="326997472"/>
+        <c:axId val="326993664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-371499648"/>
+        <c:axId val="326997472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7293,6 +7391,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7359,7 +7458,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371498560"/>
+        <c:crossAx val="326993664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7367,7 +7466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-371498560"/>
+        <c:axId val="326993664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7413,6 +7512,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7473,7 +7573,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371499648"/>
+        <c:crossAx val="326997472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7487,6 +7587,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7610,6 +7711,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7807,11 +7909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-371491488"/>
-        <c:axId val="-371490400"/>
+        <c:axId val="326995840"/>
+        <c:axId val="326999104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-371491488"/>
+        <c:axId val="326995840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7847,6 +7949,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7913,7 +8016,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371490400"/>
+        <c:crossAx val="326999104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7921,7 +8024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-371490400"/>
+        <c:axId val="326999104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7967,6 +8070,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8027,7 +8131,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371491488"/>
+        <c:crossAx val="326995840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8042,6 +8146,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8230,6 +8335,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8416,11 +8522,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-371496384"/>
-        <c:axId val="-371495840"/>
+        <c:axId val="327000736"/>
+        <c:axId val="330338496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-371496384"/>
+        <c:axId val="327000736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8456,6 +8562,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8522,7 +8629,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371495840"/>
+        <c:crossAx val="330338496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8530,7 +8637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-371495840"/>
+        <c:axId val="330338496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8589,6 +8696,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8649,7 +8757,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371496384"/>
+        <c:crossAx val="327000736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8663,6 +8771,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8781,6 +8890,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9002,11 +9112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-371494208"/>
-        <c:axId val="-371492576"/>
+        <c:axId val="330336864"/>
+        <c:axId val="330337408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-371494208"/>
+        <c:axId val="330336864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9042,6 +9152,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9108,7 +9219,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371492576"/>
+        <c:crossAx val="330337408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9116,7 +9227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-371492576"/>
+        <c:axId val="330337408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9171,6 +9282,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9231,7 +9343,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371494208"/>
+        <c:crossAx val="330336864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9245,6 +9357,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9459,11 +9572,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-371484960"/>
-        <c:axId val="-371489856"/>
+        <c:axId val="330336320"/>
+        <c:axId val="330335776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-371484960"/>
+        <c:axId val="330336320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9506,7 +9619,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371489856"/>
+        <c:crossAx val="330335776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9514,7 +9627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-371489856"/>
+        <c:axId val="330335776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9620,7 +9733,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371484960"/>
+        <c:crossAx val="330336320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9721,6 +9834,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9918,11 +10032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-371488768"/>
-        <c:axId val="-371488224"/>
+        <c:axId val="330340672"/>
+        <c:axId val="330333600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-371488768"/>
+        <c:axId val="330340672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9958,6 +10072,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10024,7 +10139,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371488224"/>
+        <c:crossAx val="330333600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10032,7 +10147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-371488224"/>
+        <c:axId val="330333600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10078,6 +10193,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10138,7 +10254,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-371488768"/>
+        <c:crossAx val="330340672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10152,6 +10268,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10278,6 +10395,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10499,11 +10617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-369533040"/>
-        <c:axId val="-369541744"/>
+        <c:axId val="435929728"/>
+        <c:axId val="435931360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-369533040"/>
+        <c:axId val="435929728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10539,6 +10657,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10605,7 +10724,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369541744"/>
+        <c:crossAx val="435931360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10613,7 +10732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-369541744"/>
+        <c:axId val="435931360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10659,6 +10778,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10719,7 +10839,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369533040"/>
+        <c:crossAx val="435929728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10733,6 +10853,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10856,6 +10977,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11053,11 +11175,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-369543376"/>
-        <c:axId val="-369542832"/>
+        <c:axId val="435931904"/>
+        <c:axId val="435936256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-369543376"/>
+        <c:axId val="435931904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11093,6 +11215,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11159,7 +11282,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369542832"/>
+        <c:crossAx val="435936256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11167,7 +11290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-369542832"/>
+        <c:axId val="435936256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11213,6 +11336,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11273,7 +11397,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369543376"/>
+        <c:crossAx val="435931904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11288,6 +11412,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11518,7 +11643,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkUpDiag">
+            <a:pattFill prst="wdDnDiag">
               <a:fgClr>
                 <a:schemeClr val="accent2"/>
               </a:fgClr>
@@ -11592,11 +11717,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-369532496"/>
-        <c:axId val="-369539568"/>
+        <c:axId val="435932992"/>
+        <c:axId val="435933536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-369532496"/>
+        <c:axId val="435932992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11695,7 +11820,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369539568"/>
+        <c:crossAx val="435933536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11703,7 +11828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-369539568"/>
+        <c:axId val="435933536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11823,7 +11948,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-369532496"/>
+        <c:crossAx val="435932992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12200,11 +12325,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-618084624"/>
-        <c:axId val="-618087888"/>
+        <c:axId val="435934080"/>
+        <c:axId val="363633488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-618084624"/>
+        <c:axId val="435934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12302,7 +12427,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-618087888"/>
+        <c:crossAx val="363633488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12310,7 +12435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-618087888"/>
+        <c:axId val="363633488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12430,7 +12555,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-618084624"/>
+        <c:crossAx val="435934080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12790,11 +12915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-430867104"/>
-        <c:axId val="-430861120"/>
+        <c:axId val="365419536"/>
+        <c:axId val="365409744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-430867104"/>
+        <c:axId val="365419536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12897,7 +13022,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-430861120"/>
+        <c:crossAx val="365409744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12905,7 +13030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-430861120"/>
+        <c:axId val="365409744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13012,7 +13137,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-430867104"/>
+        <c:crossAx val="365419536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13389,11 +13514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-559546320"/>
-        <c:axId val="-559540880"/>
+        <c:axId val="363627504"/>
+        <c:axId val="363629680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-559546320"/>
+        <c:axId val="363627504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13491,7 +13616,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-559540880"/>
+        <c:crossAx val="363629680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13499,7 +13624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-559540880"/>
+        <c:axId val="363629680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13619,7 +13744,1093 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-559546320"/>
+        <c:crossAx val="363627504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>各構成における被験者別エラー発生回数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$H$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ⅰ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct90">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$I$73:$M$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ⅱ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent6"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$I$74:$M$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$H$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ⅲ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$I$75:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$H$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ⅳ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent4"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$I$76:$M$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$H$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ⅴ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="openDmnd">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$I$77:$M$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="377256928"/>
+        <c:axId val="377261280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="377256928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>被験者</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377261280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="377261280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>エラー発生回数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>回</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377256928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13955,11 +15166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-430866560"/>
-        <c:axId val="-430859488"/>
+        <c:axId val="365406480"/>
+        <c:axId val="365412464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-430866560"/>
+        <c:axId val="365406480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14062,7 +15273,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-430859488"/>
+        <c:crossAx val="365412464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14070,7 +15281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-430859488"/>
+        <c:axId val="365412464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14190,7 +15401,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-430866560"/>
+        <c:crossAx val="365406480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14521,11 +15732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-372465280"/>
-        <c:axId val="-372460928"/>
+        <c:axId val="365407024"/>
+        <c:axId val="365414640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-372465280"/>
+        <c:axId val="365407024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14628,7 +15839,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372460928"/>
+        <c:crossAx val="365414640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14636,7 +15847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-372460928"/>
+        <c:axId val="365414640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14743,7 +15954,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372465280"/>
+        <c:crossAx val="365407024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -15047,11 +16258,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-372463104"/>
-        <c:axId val="-372462560"/>
+        <c:axId val="365408656"/>
+        <c:axId val="365416816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-372463104"/>
+        <c:axId val="365408656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15154,7 +16365,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372462560"/>
+        <c:crossAx val="365416816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15162,7 +16373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-372462560"/>
+        <c:axId val="365416816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15282,7 +16493,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372463104"/>
+        <c:crossAx val="365408656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15637,11 +16848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-372464736"/>
-        <c:axId val="-372456576"/>
+        <c:axId val="365410288"/>
+        <c:axId val="365411376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-372464736"/>
+        <c:axId val="365410288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15745,7 +16956,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372456576"/>
+        <c:crossAx val="365411376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15753,7 +16964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-372456576"/>
+        <c:axId val="365411376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15869,7 +17080,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372464736"/>
+        <c:crossAx val="365410288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16099,11 +17310,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-372453856"/>
-        <c:axId val="-372459840"/>
+        <c:axId val="463954064"/>
+        <c:axId val="463951888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-372453856"/>
+        <c:axId val="463954064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16146,7 +17357,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372459840"/>
+        <c:crossAx val="463951888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16154,7 +17365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-372459840"/>
+        <c:axId val="463951888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16261,7 +17472,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372453856"/>
+        <c:crossAx val="463954064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16560,11 +17771,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-372458752"/>
-        <c:axId val="-372456032"/>
+        <c:axId val="463955696"/>
+        <c:axId val="463956240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-372458752"/>
+        <c:axId val="463955696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16667,7 +17878,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372456032"/>
+        <c:crossAx val="463956240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16675,7 +17886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-372456032"/>
+        <c:axId val="463956240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16782,7 +17993,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-372458752"/>
+        <c:crossAx val="463955696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17823,6 +19034,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -29808,6 +31059,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -34136,6 +35890,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -34404,8 +36188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N5"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34700,8 +36484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:M5"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34970,7 +36754,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M5"/>
+      <selection activeCell="K26" sqref="K26:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35260,8 +37044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:M5"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35554,8 +37338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:M5"/>
+    <sheetView topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35821,10 +37605,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36106,6 +37890,608 @@
         <v>162</v>
       </c>
     </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="1">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B67" s="1">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>3</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B69" s="1">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B70" s="1">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5</v>
+      </c>
+      <c r="H70" s="1">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I73" s="1">
+        <v>6</v>
+      </c>
+      <c r="J73" s="1">
+        <v>7</v>
+      </c>
+      <c r="K73" s="1">
+        <v>6</v>
+      </c>
+      <c r="L73" s="1">
+        <v>3</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>7</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" s="1">
+        <v>3</v>
+      </c>
+      <c r="J74" s="1">
+        <v>3</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1">
+        <v>3</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B75" s="1">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>3</v>
+      </c>
+      <c r="K75" s="1">
+        <v>5</v>
+      </c>
+      <c r="L75" s="1">
+        <v>3</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>7</v>
+      </c>
+      <c r="L76" s="1">
+        <v>2</v>
+      </c>
+      <c r="M76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4</v>
+      </c>
+      <c r="L77" s="1">
+        <v>4</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B82" s="1">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B85" s="1">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="100">
   <si>
     <t>手動入力（秒）</t>
     <rPh sb="0" eb="4">
@@ -688,6 +688,153 @@
     <t>E</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従来方式</t>
+    <rPh sb="0" eb="4">
+      <t>ジュウライホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーケストレーション定義エディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーケストレーション定義エディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -775,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +939,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1085,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365405936"/>
-        <c:axId val="365415184"/>
+        <c:axId val="-16478064"/>
+        <c:axId val="-16475888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365405936"/>
+        <c:axId val="-16478064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1345,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365415184"/>
+        <c:crossAx val="-16475888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1200,7 +1353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365415184"/>
+        <c:axId val="-16475888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1473,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365405936"/>
+        <c:crossAx val="-16478064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,11 +1836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435725728"/>
-        <c:axId val="435721376"/>
+        <c:axId val="-1941019456"/>
+        <c:axId val="-1941021632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435725728"/>
+        <c:axId val="-1941019456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1943,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435721376"/>
+        <c:crossAx val="-1941021632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,7 +1951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435721376"/>
+        <c:axId val="-1941021632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +2058,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435725728"/>
+        <c:crossAx val="-1941019456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,11 +2394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366981824"/>
-        <c:axId val="366983456"/>
+        <c:axId val="-1941022720"/>
+        <c:axId val="-1941013472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="366981824"/>
+        <c:axId val="-1941022720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,7 +2501,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366983456"/>
+        <c:crossAx val="-1941013472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2356,7 +2509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366983456"/>
+        <c:axId val="-1941013472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2616,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366981824"/>
+        <c:crossAx val="-1941022720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2819,11 +2972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366980192"/>
-        <c:axId val="366982368"/>
+        <c:axId val="-1941024896"/>
+        <c:axId val="-1941023808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="366980192"/>
+        <c:axId val="-1941024896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +3079,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366982368"/>
+        <c:crossAx val="-1941023808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2934,7 +3087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366982368"/>
+        <c:axId val="-1941023808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,7 +3203,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366980192"/>
+        <c:crossAx val="-1941024896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,11 +3433,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="366984544"/>
-        <c:axId val="366979648"/>
+        <c:axId val="-1939537216"/>
+        <c:axId val="-1939533408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="366984544"/>
+        <c:axId val="-1939537216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3327,7 +3480,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366979648"/>
+        <c:crossAx val="-1939533408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3335,7 +3488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="366979648"/>
+        <c:axId val="-1939533408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,7 +3595,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366984544"/>
+        <c:crossAx val="-1939537216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,11 +3894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38238144"/>
-        <c:axId val="38240320"/>
+        <c:axId val="-1939539392"/>
+        <c:axId val="-1939540480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38238144"/>
+        <c:axId val="-1939539392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3848,7 +4001,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38240320"/>
+        <c:crossAx val="-1939540480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3856,7 +4009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38240320"/>
+        <c:axId val="-1939540480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,7 +4116,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38238144"/>
+        <c:crossAx val="-1939539392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4326,11 +4479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38242496"/>
-        <c:axId val="38243040"/>
+        <c:axId val="-1939532864"/>
+        <c:axId val="-1939531232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38242496"/>
+        <c:axId val="-1939532864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4433,7 +4586,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38243040"/>
+        <c:crossAx val="-1939531232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4441,7 +4594,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38243040"/>
+        <c:axId val="-1939531232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,7 +4701,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38242496"/>
+        <c:crossAx val="-1939532864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4884,11 +5037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38240864"/>
-        <c:axId val="38244128"/>
+        <c:axId val="-1939530688"/>
+        <c:axId val="-1939545920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38240864"/>
+        <c:axId val="-1939530688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4991,7 +5144,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38244128"/>
+        <c:crossAx val="-1939545920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4999,7 +5152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38244128"/>
+        <c:axId val="-1939545920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5106,7 +5259,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38240864"/>
+        <c:crossAx val="-1939530688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5470,11 +5623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439339264"/>
-        <c:axId val="439338176"/>
+        <c:axId val="-1939545376"/>
+        <c:axId val="-1939541024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="439339264"/>
+        <c:axId val="-1939545376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,7 +5730,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439338176"/>
+        <c:crossAx val="-1939541024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5585,7 +5738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439338176"/>
+        <c:axId val="-1939541024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5701,7 +5854,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439339264"/>
+        <c:crossAx val="-1939545376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5830,6 +5983,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5930,11 +6084,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439340352"/>
-        <c:axId val="439337088"/>
+        <c:axId val="-1939538848"/>
+        <c:axId val="-1939537760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439340352"/>
+        <c:axId val="-1939538848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5977,7 +6131,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439337088"/>
+        <c:crossAx val="-1939537760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5985,7 +6139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439337088"/>
+        <c:axId val="-1939537760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6031,6 +6185,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6091,7 +6246,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439340352"/>
+        <c:crossAx val="-1939538848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6390,11 +6545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326994208"/>
-        <c:axId val="326998016"/>
+        <c:axId val="-1939536128"/>
+        <c:axId val="-1939533952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="326994208"/>
+        <c:axId val="-1939536128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,7 +6652,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326998016"/>
+        <c:crossAx val="-1939533952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6505,7 +6660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326998016"/>
+        <c:axId val="-1939533952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6612,7 +6767,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326994208"/>
+        <c:crossAx val="-1939536128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6846,11 +7001,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365418992"/>
-        <c:axId val="365408112"/>
+        <c:axId val="-16469360"/>
+        <c:axId val="-16476976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365418992"/>
+        <c:axId val="-16469360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6893,7 +7048,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365408112"/>
+        <c:crossAx val="-16476976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6901,7 +7056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365408112"/>
+        <c:axId val="-16476976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7020,7 +7175,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365418992"/>
+        <c:crossAx val="-16469360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7351,11 +7506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326997472"/>
-        <c:axId val="326993664"/>
+        <c:axId val="-1939086128"/>
+        <c:axId val="-1939082864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="326997472"/>
+        <c:axId val="-1939086128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7458,7 +7613,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326993664"/>
+        <c:crossAx val="-1939082864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7466,7 +7621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326993664"/>
+        <c:axId val="-1939082864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7573,7 +7728,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326997472"/>
+        <c:crossAx val="-1939086128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7909,11 +8064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="326995840"/>
-        <c:axId val="326999104"/>
+        <c:axId val="-1939071984"/>
+        <c:axId val="-1939083952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="326995840"/>
+        <c:axId val="-1939071984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8016,7 +8171,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326999104"/>
+        <c:crossAx val="-1939083952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8024,7 +8179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="326999104"/>
+        <c:axId val="-1939083952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8131,7 +8286,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326995840"/>
+        <c:crossAx val="-1939071984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8522,11 +8677,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="327000736"/>
-        <c:axId val="330338496"/>
+        <c:axId val="-1939077968"/>
+        <c:axId val="-1939085584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="327000736"/>
+        <c:axId val="-1939077968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8629,7 +8784,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330338496"/>
+        <c:crossAx val="-1939085584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8637,7 +8792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330338496"/>
+        <c:axId val="-1939085584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8757,7 +8912,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327000736"/>
+        <c:crossAx val="-1939077968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9112,11 +9267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330336864"/>
-        <c:axId val="330337408"/>
+        <c:axId val="-1939079056"/>
+        <c:axId val="-1939078512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330336864"/>
+        <c:axId val="-1939079056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9219,7 +9374,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330337408"/>
+        <c:crossAx val="-1939078512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9227,7 +9382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330337408"/>
+        <c:axId val="-1939078512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9343,7 +9498,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330336864"/>
+        <c:crossAx val="-1939079056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9472,6 +9627,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9572,11 +9728,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330336320"/>
-        <c:axId val="330335776"/>
+        <c:axId val="-1939076880"/>
+        <c:axId val="-1939073072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330336320"/>
+        <c:axId val="-1939076880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9619,7 +9775,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330335776"/>
+        <c:crossAx val="-1939073072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9627,7 +9783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330335776"/>
+        <c:axId val="-1939073072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9673,6 +9829,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9733,7 +9890,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330336320"/>
+        <c:crossAx val="-1939076880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10032,11 +10189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="330340672"/>
-        <c:axId val="330333600"/>
+        <c:axId val="-1939082320"/>
+        <c:axId val="-1939075792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="330340672"/>
+        <c:axId val="-1939082320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10139,7 +10296,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330333600"/>
+        <c:crossAx val="-1939075792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10147,7 +10304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330333600"/>
+        <c:axId val="-1939075792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10254,7 +10411,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330340672"/>
+        <c:crossAx val="-1939082320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10617,11 +10774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435929728"/>
-        <c:axId val="435931360"/>
+        <c:axId val="-1939074160"/>
+        <c:axId val="-1939072528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435929728"/>
+        <c:axId val="-1939074160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10724,7 +10881,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435931360"/>
+        <c:crossAx val="-1939072528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10732,7 +10889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435931360"/>
+        <c:axId val="-1939072528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10839,7 +10996,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435929728"/>
+        <c:crossAx val="-1939074160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11175,11 +11332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435931904"/>
-        <c:axId val="435936256"/>
+        <c:axId val="-1939086672"/>
+        <c:axId val="-1937540112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435931904"/>
+        <c:axId val="-1939086672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11282,7 +11439,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435936256"/>
+        <c:crossAx val="-1937540112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11290,7 +11447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435936256"/>
+        <c:axId val="-1937540112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11397,7 +11554,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435931904"/>
+        <c:crossAx val="-1939086672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11717,11 +11874,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="435932992"/>
-        <c:axId val="435933536"/>
+        <c:axId val="-1937546640"/>
+        <c:axId val="-1937546096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="435932992"/>
+        <c:axId val="-1937546640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11820,7 +11977,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435933536"/>
+        <c:crossAx val="-1937546096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11828,7 +11985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435933536"/>
+        <c:axId val="-1937546096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11948,7 +12105,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435932992"/>
+        <c:crossAx val="-1937546640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12325,11 +12482,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="435934080"/>
-        <c:axId val="363633488"/>
+        <c:axId val="-1937554256"/>
+        <c:axId val="-1937554800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435934080"/>
+        <c:axId val="-1937554256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12427,7 +12584,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363633488"/>
+        <c:crossAx val="-1937554800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12435,7 +12592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363633488"/>
+        <c:axId val="-1937554800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12555,7 +12712,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435934080"/>
+        <c:crossAx val="-1937554256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12915,11 +13072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365419536"/>
-        <c:axId val="365409744"/>
+        <c:axId val="-16476432"/>
+        <c:axId val="-16480784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365419536"/>
+        <c:axId val="-16476432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13022,7 +13179,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365409744"/>
+        <c:crossAx val="-16480784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13030,7 +13187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365409744"/>
+        <c:axId val="-16480784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13137,7 +13294,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365419536"/>
+        <c:crossAx val="-16476432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13299,7 +13456,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>論文掲載用データ!$I$31</c:f>
+              <c:f>論文掲載用データ!$G$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13381,7 +13538,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>論文掲載用データ!$I$32:$I$34</c:f>
+              <c:f>論文掲載用データ!$G$32:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -13404,7 +13561,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>論文掲載用データ!$J$31</c:f>
+              <c:f>論文掲載用データ!$H$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13486,7 +13643,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>論文掲載用データ!$J$32:$J$34</c:f>
+              <c:f>論文掲載用データ!$H$32:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -13514,11 +13671,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="363627504"/>
-        <c:axId val="363629680"/>
+        <c:axId val="-1937555344"/>
+        <c:axId val="-1937553712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="363627504"/>
+        <c:axId val="-1937555344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13616,7 +13773,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363629680"/>
+        <c:crossAx val="-1937553712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13624,7 +13781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363629680"/>
+        <c:axId val="-1937553712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13744,7 +13901,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363627504"/>
+        <c:crossAx val="-1937555344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13907,7 +14064,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>論文掲載用データ!$H$73</c:f>
+              <c:f>論文掲載用データ!$F$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13994,7 +14151,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:f>論文掲載用データ!$G$72:$K$72</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14017,7 +14174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>論文掲載用データ!$I$73:$M$73</c:f>
+              <c:f>論文掲載用データ!$G$73:$K$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14045,7 +14202,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>論文掲載用データ!$H$74</c:f>
+              <c:f>論文掲載用データ!$F$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14132,7 +14289,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:f>論文掲載用データ!$G$72:$K$72</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14155,7 +14312,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>論文掲載用データ!$I$74:$M$74</c:f>
+              <c:f>論文掲載用データ!$G$74:$K$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14183,7 +14340,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>論文掲載用データ!$H$75</c:f>
+              <c:f>論文掲載用データ!$F$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14270,7 +14427,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:f>論文掲載用データ!$G$72:$K$72</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14293,7 +14450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>論文掲載用データ!$I$75:$M$75</c:f>
+              <c:f>論文掲載用データ!$G$75:$K$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14321,7 +14478,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>論文掲載用データ!$H$76</c:f>
+              <c:f>論文掲載用データ!$F$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14406,7 +14563,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:f>論文掲載用データ!$G$72:$K$72</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14429,7 +14586,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>論文掲載用データ!$I$76:$M$76</c:f>
+              <c:f>論文掲載用データ!$G$76:$K$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14457,7 +14614,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>論文掲載用データ!$H$77</c:f>
+              <c:f>論文掲載用データ!$F$77</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14542,7 +14699,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>論文掲載用データ!$I$72:$M$72</c:f>
+              <c:f>論文掲載用データ!$G$72:$K$72</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14565,7 +14722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>論文掲載用データ!$I$77:$M$77</c:f>
+              <c:f>論文掲載用データ!$G$77:$K$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14599,11 +14756,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="377256928"/>
-        <c:axId val="377261280"/>
+        <c:axId val="-1937540656"/>
+        <c:axId val="-1937550448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377256928"/>
+        <c:axId val="-1937540656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14702,7 +14859,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377261280"/>
+        <c:crossAx val="-1937550448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14710,7 +14867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377261280"/>
+        <c:axId val="-1937550448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14830,7 +14987,1970 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377256928"/>
+        <c:crossAx val="-1937540656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>各方式学習時間比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$B$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>オーケストレーション定義エディタ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$C$120:$G$120</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$C$121:$G$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$B$122</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>従来方式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$C$120:$G$120</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$C$122:$G$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-67268000"/>
+        <c:axId val="-67262016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-67268000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>被験者</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-67262016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-67262016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>学習時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-67268000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>各方式作成所要時間比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$B$168</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>オーケストレーション定義エディタ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$C$167:$Q$167</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$C$168:$Q$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$B$169</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>従来方式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$C$167:$Q$167</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$C$169:$Q$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1896721152"/>
+        <c:axId val="-1896715712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1896721152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1896715712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1896715712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1896721152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>各方式エラー回数比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$F$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>オーケストレーション定義エディタ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$G$96:$U$96</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$G$97:$U$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$F$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>従来方式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$G$96:$U$96</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$G$98:$U$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1896717344"/>
+        <c:axId val="-1896729856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1896717344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1896729856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1896729856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>エラー回数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>回</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1896717344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15166,11 +17286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365406480"/>
-        <c:axId val="365412464"/>
+        <c:axId val="-16474800"/>
+        <c:axId val="-16474256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365406480"/>
+        <c:axId val="-16474800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15273,7 +17393,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365412464"/>
+        <c:crossAx val="-16474256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15281,7 +17401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365412464"/>
+        <c:axId val="-16474256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15401,7 +17521,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365406480"/>
+        <c:crossAx val="-16474800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15732,11 +17852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365407024"/>
-        <c:axId val="365414640"/>
+        <c:axId val="-16470992"/>
+        <c:axId val="-67259840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365407024"/>
+        <c:axId val="-16470992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15839,7 +17959,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365414640"/>
+        <c:crossAx val="-67259840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15847,7 +17967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365414640"/>
+        <c:axId val="-67259840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15954,7 +18074,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365407024"/>
+        <c:crossAx val="-16470992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -16258,11 +18378,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="365408656"/>
-        <c:axId val="365416816"/>
+        <c:axId val="-1941010208"/>
+        <c:axId val="-1941016192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="365408656"/>
+        <c:axId val="-1941010208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16365,7 +18485,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365416816"/>
+        <c:crossAx val="-1941016192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16373,7 +18493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365416816"/>
+        <c:axId val="-1941016192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16493,7 +18613,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365408656"/>
+        <c:crossAx val="-1941010208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16848,11 +18968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365410288"/>
-        <c:axId val="365411376"/>
+        <c:axId val="-1941017280"/>
+        <c:axId val="-1941016736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365410288"/>
+        <c:axId val="-1941017280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16956,7 +19076,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365411376"/>
+        <c:crossAx val="-1941016736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16964,7 +19084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365411376"/>
+        <c:axId val="-1941016736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17080,7 +19200,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365410288"/>
+        <c:crossAx val="-1941017280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17310,11 +19430,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="463954064"/>
-        <c:axId val="463951888"/>
+        <c:axId val="-1941015104"/>
+        <c:axId val="-1941023264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463954064"/>
+        <c:axId val="-1941015104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17357,7 +19477,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463951888"/>
+        <c:crossAx val="-1941023264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17365,7 +19485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463951888"/>
+        <c:axId val="-1941023264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17472,7 +19592,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463954064"/>
+        <c:crossAx val="-1941015104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17771,11 +19891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463955696"/>
-        <c:axId val="463956240"/>
+        <c:axId val="-1941014560"/>
+        <c:axId val="-1941010752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463955696"/>
+        <c:axId val="-1941014560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17878,7 +19998,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463956240"/>
+        <c:crossAx val="-1941010752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17886,7 +20006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463956240"/>
+        <c:axId val="-1941010752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17993,7 +20113,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463955696"/>
+        <c:crossAx val="-1941014560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19074,6 +21194,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -31413,6 +33653,1515 @@
 </file>
 
 <file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style33.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -35862,13 +39611,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -35892,13 +39641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1276350</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -35915,6 +39664,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -36188,8 +40027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:N33"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36484,8 +40323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:M29"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36754,7 +40593,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:M29"/>
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37044,8 +40883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:H31"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37338,8 +41177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:M29"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37605,22 +41444,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" topLeftCell="I72" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="0.625" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="38.125" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="3" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.15">
@@ -37696,7 +41533,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -37709,20 +41546,20 @@
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E25" t="s">
         <v>39</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -37732,19 +41569,19 @@
       <c r="D26" s="2">
         <v>485</v>
       </c>
-      <c r="H26" s="1">
+      <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="1">
+      <c r="G26" s="1">
         <f>60+46</f>
         <v>106</v>
       </c>
-      <c r="J26" s="1">
+      <c r="H26" s="1">
         <f>25*60+32</f>
         <v>1532</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -37756,19 +41593,19 @@
         <f>9*60+54</f>
         <v>594</v>
       </c>
-      <c r="H27" s="1">
+      <c r="F27" s="1">
         <v>2</v>
       </c>
-      <c r="I27" s="1">
+      <c r="G27" s="1">
         <f>3*60+48</f>
         <v>228</v>
       </c>
-      <c r="J27" s="1">
+      <c r="H27" s="1">
         <f>34*60+30</f>
         <v>2070</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -37780,19 +41617,19 @@
         <f>11*60</f>
         <v>660</v>
       </c>
-      <c r="H28" s="1">
+      <c r="F28" s="1">
         <v>3</v>
       </c>
-      <c r="I28" s="1">
+      <c r="G28" s="1">
         <f>2*60+42</f>
         <v>162</v>
       </c>
-      <c r="J28" s="1">
+      <c r="H28" s="1">
         <f>49*60+50</f>
         <v>2990</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -37805,20 +41642,20 @@
       <c r="D31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G31" t="s">
+      <c r="E31" t="s">
         <v>44</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="1">
         <v>1</v>
       </c>
@@ -37827,22 +41664,22 @@
         <v>485</v>
       </c>
       <c r="D32" s="1">
-        <f>J26</f>
+        <f>H26</f>
         <v>1532</v>
       </c>
-      <c r="H32" s="1">
+      <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="1">
+      <c r="G32" s="1">
         <f>C26</f>
         <v>105</v>
       </c>
-      <c r="J32" s="1">
-        <f>I26</f>
+      <c r="H32" s="1">
+        <f>G26</f>
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="1">
         <v>2</v>
       </c>
@@ -37851,22 +41688,22 @@
         <v>594</v>
       </c>
       <c r="D33" s="1">
-        <f>J27</f>
+        <f>H27</f>
         <v>2070</v>
       </c>
-      <c r="H33" s="1">
+      <c r="F33" s="1">
         <v>2</v>
       </c>
-      <c r="I33" s="1">
+      <c r="G33" s="1">
         <f>C27</f>
         <v>113</v>
       </c>
-      <c r="J33" s="1">
-        <f>I27</f>
+      <c r="H33" s="1">
+        <f>G27</f>
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
         <v>3</v>
       </c>
@@ -37875,22 +41712,22 @@
         <v>660</v>
       </c>
       <c r="D34" s="1">
-        <f>J28</f>
+        <f>H28</f>
         <v>2990</v>
       </c>
-      <c r="H34" s="1">
+      <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="I34" s="1">
+      <c r="G34" s="1">
         <f>C28</f>
         <v>160</v>
       </c>
-      <c r="J34" s="1">
-        <f>I28</f>
+      <c r="H34" s="1">
+        <f>G28</f>
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -37903,20 +41740,20 @@
       <c r="D53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G53" t="s">
+      <c r="E53" t="s">
         <v>48</v>
       </c>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <v>1</v>
       </c>
@@ -37926,17 +41763,17 @@
       <c r="D54" s="1">
         <v>6</v>
       </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
       <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <v>2</v>
       </c>
@@ -37946,17 +41783,17 @@
       <c r="D55" s="1">
         <v>0</v>
       </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
       <c r="H55" s="1">
-        <v>2</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
         <v>3</v>
       </c>
@@ -37966,17 +41803,17 @@
       <c r="D56" s="1">
         <v>3</v>
       </c>
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
       <c r="H56" s="1">
         <v>3</v>
       </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <v>4</v>
       </c>
@@ -37986,17 +41823,17 @@
       <c r="D57" s="1">
         <v>1</v>
       </c>
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
       <c r="H57" s="1">
-        <v>4</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <v>5</v>
       </c>
@@ -38006,17 +41843,17 @@
       <c r="D58" s="1">
         <v>0</v>
       </c>
+      <c r="F58" s="1">
+        <v>5</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
       <c r="H58" s="1">
-        <v>5</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
@@ -38026,17 +41863,17 @@
       <c r="D60" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J60" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B61" s="1">
         <v>1</v>
       </c>
@@ -38046,17 +41883,17 @@
       <c r="D61" s="1">
         <v>0</v>
       </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
       <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B62" s="1">
         <v>2</v>
       </c>
@@ -38066,17 +41903,17 @@
       <c r="D62" s="1">
         <v>0</v>
       </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
       <c r="H62" s="1">
-        <v>2</v>
-      </c>
-      <c r="I62" s="1">
         <v>0</v>
       </c>
-      <c r="J62" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B63" s="1">
         <v>3</v>
       </c>
@@ -38086,17 +41923,17 @@
       <c r="D63" s="1">
         <v>2</v>
       </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
       <c r="H63" s="1">
-        <v>3</v>
-      </c>
-      <c r="I63" s="1">
         <v>0</v>
       </c>
-      <c r="J63" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -38109,20 +41946,20 @@
       <c r="D65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G65" t="s">
+      <c r="E65" t="s">
         <v>50</v>
       </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B66" s="1">
         <v>1</v>
       </c>
@@ -38132,17 +41969,17 @@
       <c r="D66" s="1">
         <v>6</v>
       </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
       <c r="H66" s="1">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="J66" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B67" s="1">
         <v>2</v>
       </c>
@@ -38152,17 +41989,17 @@
       <c r="D67" s="1">
         <v>4</v>
       </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
       <c r="H67" s="1">
         <v>2</v>
       </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
-        <v>2</v>
-      </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B68" s="1">
         <v>3</v>
       </c>
@@ -38172,17 +42009,17 @@
       <c r="D68" s="1">
         <v>1</v>
       </c>
+      <c r="F68" s="1">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
       <c r="H68" s="1">
         <v>3</v>
       </c>
-      <c r="I68" s="1">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B69" s="1">
         <v>4</v>
       </c>
@@ -38192,17 +42029,17 @@
       <c r="D69" s="1">
         <v>5</v>
       </c>
+      <c r="F69" s="1">
+        <v>4</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
       <c r="H69" s="1">
-        <v>4</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0</v>
-      </c>
-      <c r="J69" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B70" s="1">
         <v>5</v>
       </c>
@@ -38212,17 +42049,17 @@
       <c r="D70" s="1">
         <v>5</v>
       </c>
+      <c r="F70" s="1">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
       <c r="H70" s="1">
-        <v>5</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
-      </c>
-      <c r="J70" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
@@ -38232,29 +42069,29 @@
       <c r="D72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G72" t="s">
+      <c r="E72" t="s">
         <v>52</v>
       </c>
+      <c r="F72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="H72" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M72" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B73" s="1">
         <v>1</v>
       </c>
@@ -38264,26 +42101,26 @@
       <c r="D73" s="1">
         <v>5</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6</v>
+      </c>
+      <c r="H73" s="1">
+        <v>7</v>
       </c>
       <c r="I73" s="1">
         <v>6</v>
       </c>
       <c r="J73" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K73" s="1">
-        <v>6</v>
-      </c>
-      <c r="L73" s="1">
-        <v>3</v>
-      </c>
-      <c r="M73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B74" s="1">
         <v>2</v>
       </c>
@@ -38293,11 +42130,17 @@
       <c r="D74" s="1">
         <v>7</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="G74" s="1">
+        <v>3</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3</v>
+      </c>
       <c r="I74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1">
         <v>3</v>
@@ -38305,14 +42148,8 @@
       <c r="K74" s="1">
         <v>1</v>
       </c>
-      <c r="L74" s="1">
-        <v>3</v>
-      </c>
-      <c r="M74" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B75" s="1">
         <v>3</v>
       </c>
@@ -38322,46 +42159,46 @@
       <c r="D75" s="1">
         <v>4</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>3</v>
+      </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J75" s="1">
         <v>3</v>
       </c>
       <c r="K75" s="1">
-        <v>5</v>
-      </c>
-      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>7</v>
+      </c>
+      <c r="J76" s="1">
+        <v>2</v>
+      </c>
+      <c r="K76" s="1">
         <v>3</v>
       </c>
-      <c r="M75" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H76" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
-        <v>7</v>
-      </c>
-      <c r="L76" s="1">
-        <v>2</v>
-      </c>
-      <c r="M76" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -38374,26 +42211,26 @@
       <c r="D77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
       <c r="I77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K77" s="1">
-        <v>4</v>
-      </c>
-      <c r="L77" s="1">
-        <v>4</v>
-      </c>
-      <c r="M77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B78" s="1">
         <v>1</v>
       </c>
@@ -38404,7 +42241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B79" s="1">
         <v>2</v>
       </c>
@@ -38415,7 +42252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B80" s="1">
         <v>3</v>
       </c>
@@ -38426,7 +42263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B81" s="1">
         <v>4</v>
       </c>
@@ -38437,7 +42274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B82" s="1">
         <v>5</v>
       </c>
@@ -38448,7 +42285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -38459,7 +42296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
         <v>1</v>
       </c>
@@ -38470,7 +42307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B86" s="1">
         <v>2</v>
       </c>
@@ -38481,7 +42318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B87" s="1">
         <v>3</v>
       </c>
@@ -38490,6 +42327,790 @@
       </c>
       <c r="D87" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="F96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U96" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="F97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0</v>
+      </c>
+      <c r="U97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="F98" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>3</v>
+      </c>
+      <c r="I98" s="1">
+        <v>5</v>
+      </c>
+      <c r="J98" s="1">
+        <v>3</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>7</v>
+      </c>
+      <c r="O98" s="1">
+        <v>2</v>
+      </c>
+      <c r="P98" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>2</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1">
+        <v>4</v>
+      </c>
+      <c r="T98" s="1">
+        <v>4</v>
+      </c>
+      <c r="U98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B103" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" s="1">
+        <f>60*1+12</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <f>7*60+1</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B107" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <f>8*60+23</f>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B111" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="1">
+        <f>60+30</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1">
+        <f>7*60+59</f>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B115" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="1">
+        <f>60+43</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1">
+        <f>6*60+53</f>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B120" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C121" s="1">
+        <v>180</v>
+      </c>
+      <c r="D121" s="1">
+        <v>72</v>
+      </c>
+      <c r="E121" s="1">
+        <v>90</v>
+      </c>
+      <c r="F121" s="1">
+        <v>90</v>
+      </c>
+      <c r="G121" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122" s="1">
+        <v>540</v>
+      </c>
+      <c r="D122" s="1">
+        <v>421</v>
+      </c>
+      <c r="E122" s="1">
+        <v>503</v>
+      </c>
+      <c r="F122" s="1">
+        <v>479</v>
+      </c>
+      <c r="G122" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B143" s="1">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1">
+        <v>105</v>
+      </c>
+      <c r="D143" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B144" s="1">
+        <v>2</v>
+      </c>
+      <c r="C144" s="1">
+        <f>60+53</f>
+        <v>113</v>
+      </c>
+      <c r="D144" s="2">
+        <f>9*60+54</f>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B145" s="1">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1">
+        <f>120+40</f>
+        <v>160</v>
+      </c>
+      <c r="D145" s="2">
+        <f>11*60</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1">
+        <f>180+10</f>
+        <v>190</v>
+      </c>
+      <c r="D148" s="1">
+        <f>12*60+25</f>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1">
+        <f>2*60+4</f>
+        <v>124</v>
+      </c>
+      <c r="D149" s="1">
+        <f>14*60+22</f>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B150" s="1">
+        <v>3</v>
+      </c>
+      <c r="C150" s="1">
+        <f>2*60+40</f>
+        <v>160</v>
+      </c>
+      <c r="D150" s="1">
+        <f>12*60+10</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B153" s="1">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1">
+        <f>60+46</f>
+        <v>106</v>
+      </c>
+      <c r="D153" s="1">
+        <f>25*60+32</f>
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B154" s="1">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1">
+        <f>3*60+48</f>
+        <v>228</v>
+      </c>
+      <c r="D154" s="1">
+        <f>34*60+30</f>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B155" s="1">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1">
+        <f>2*60+42</f>
+        <v>162</v>
+      </c>
+      <c r="D155" s="1">
+        <f>49*60+50</f>
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B156" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B158" s="1">
+        <v>1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>139</v>
+      </c>
+      <c r="D158" s="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B159" s="1">
+        <v>2</v>
+      </c>
+      <c r="C159" s="1">
+        <f>3*60+8</f>
+        <v>188</v>
+      </c>
+      <c r="D159" s="1">
+        <f>19*60+33</f>
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B160" s="1">
+        <v>3</v>
+      </c>
+      <c r="C160" s="1">
+        <f>2*60+25</f>
+        <v>145</v>
+      </c>
+      <c r="D160" s="1">
+        <f>32*60+26</f>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B162" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B163" s="1">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1">
+        <v>137</v>
+      </c>
+      <c r="D163" s="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B164" s="1">
+        <v>2</v>
+      </c>
+      <c r="C164" s="1">
+        <f>3*60+9</f>
+        <v>189</v>
+      </c>
+      <c r="D164" s="1">
+        <f>38*60+16</f>
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B165" s="1">
+        <v>3</v>
+      </c>
+      <c r="C165" s="1">
+        <f>3*60+49</f>
+        <v>229</v>
+      </c>
+      <c r="D165" s="1">
+        <f>19*60+51</f>
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B166" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B167" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B168" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C168" s="1">
+        <v>105</v>
+      </c>
+      <c r="D168" s="1">
+        <v>190</v>
+      </c>
+      <c r="E168" s="1">
+        <v>106</v>
+      </c>
+      <c r="F168" s="1">
+        <v>139</v>
+      </c>
+      <c r="G168" s="1">
+        <v>137</v>
+      </c>
+      <c r="H168" s="1">
+        <v>113</v>
+      </c>
+      <c r="I168" s="1">
+        <v>124</v>
+      </c>
+      <c r="J168" s="1">
+        <v>228</v>
+      </c>
+      <c r="K168" s="1">
+        <v>188</v>
+      </c>
+      <c r="L168" s="1">
+        <v>189</v>
+      </c>
+      <c r="M168" s="1">
+        <v>160</v>
+      </c>
+      <c r="N168" s="1">
+        <v>160</v>
+      </c>
+      <c r="O168" s="1">
+        <v>162</v>
+      </c>
+      <c r="P168" s="1">
+        <v>145</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B169" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C169" s="1">
+        <v>485</v>
+      </c>
+      <c r="D169" s="1">
+        <v>745</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1532</v>
+      </c>
+      <c r="F169" s="1">
+        <v>868</v>
+      </c>
+      <c r="G169" s="1">
+        <v>731</v>
+      </c>
+      <c r="H169" s="1">
+        <v>594</v>
+      </c>
+      <c r="I169" s="1">
+        <v>862</v>
+      </c>
+      <c r="J169" s="1">
+        <v>2070</v>
+      </c>
+      <c r="K169" s="1">
+        <v>1173</v>
+      </c>
+      <c r="L169" s="1">
+        <v>2296</v>
+      </c>
+      <c r="M169" s="1">
+        <v>660</v>
+      </c>
+      <c r="N169" s="1">
+        <v>730</v>
+      </c>
+      <c r="O169" s="1">
+        <v>2990</v>
+      </c>
+      <c r="P169" s="1">
+        <v>1946</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>1191</v>
       </c>
     </row>
   </sheetData>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="103">
   <si>
     <t>手動入力（秒）</t>
     <rPh sb="0" eb="4">
@@ -835,6 +835,27 @@
     <t>オーケストレーション定義エディタ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>オーケストレーション定義エディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従来方式</t>
+    <rPh sb="0" eb="4">
+      <t>ジュウライホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ+B173:G175</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウライ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1016,7 +1037,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1238,11 +1258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16478064"/>
-        <c:axId val="-16475888"/>
+        <c:axId val="-55082544"/>
+        <c:axId val="-55090160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16478064"/>
+        <c:axId val="-55082544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1298,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1345,7 +1364,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16475888"/>
+        <c:crossAx val="-55090160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1353,7 +1372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16475888"/>
+        <c:axId val="-55090160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1431,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1473,7 +1491,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16478064"/>
+        <c:crossAx val="-55082544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,7 +1505,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1614,7 +1631,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1836,11 +1852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1941019456"/>
-        <c:axId val="-1941021632"/>
+        <c:axId val="-1945438720"/>
+        <c:axId val="-1945441984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1941019456"/>
+        <c:axId val="-1945438720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1892,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1943,7 +1958,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941021632"/>
+        <c:crossAx val="-1945441984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941021632"/>
+        <c:axId val="-1945441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2012,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2058,7 +2072,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941019456"/>
+        <c:crossAx val="-1945438720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,7 +2086,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2196,7 +2209,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2394,11 +2406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1941022720"/>
-        <c:axId val="-1941013472"/>
+        <c:axId val="-1945442528"/>
+        <c:axId val="-1945450144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1941022720"/>
+        <c:axId val="-1945442528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,7 +2446,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2501,7 +2512,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941013472"/>
+        <c:crossAx val="-1945450144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941013472"/>
+        <c:axId val="-1945450144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2566,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2616,7 +2626,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941022720"/>
+        <c:crossAx val="-1945442528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2631,7 +2641,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2750,7 +2759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2972,11 +2980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1941024896"/>
-        <c:axId val="-1941023808"/>
+        <c:axId val="-1945440896"/>
+        <c:axId val="-1945440352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1941024896"/>
+        <c:axId val="-1945440896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3012,7 +3020,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3079,7 +3086,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941023808"/>
+        <c:crossAx val="-1945440352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3087,7 +3094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941023808"/>
+        <c:axId val="-1945440352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,7 +3149,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3203,7 +3209,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941024896"/>
+        <c:crossAx val="-1945440896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3217,7 +3223,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3332,7 +3337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3433,11 +3437,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1939537216"/>
-        <c:axId val="-1939533408"/>
+        <c:axId val="-1945243872"/>
+        <c:axId val="-1945234624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1939537216"/>
+        <c:axId val="-1945243872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3484,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939533408"/>
+        <c:crossAx val="-1945234624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3488,7 +3492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939533408"/>
+        <c:axId val="-1945234624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3538,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3595,7 +3598,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939537216"/>
+        <c:crossAx val="-1945243872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3696,7 +3699,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3894,11 +3896,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939539392"/>
-        <c:axId val="-1939540480"/>
+        <c:axId val="-1945236800"/>
+        <c:axId val="-1945242240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939539392"/>
+        <c:axId val="-1945236800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,7 +3936,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4001,7 +4002,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939540480"/>
+        <c:crossAx val="-1945242240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4009,7 +4010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939540480"/>
+        <c:axId val="-1945242240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4055,7 +4056,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4116,7 +4116,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939539392"/>
+        <c:crossAx val="-1945236800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4130,7 +4130,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4257,7 +4256,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4479,11 +4477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939532864"/>
-        <c:axId val="-1939531232"/>
+        <c:axId val="-1945231360"/>
+        <c:axId val="-1945231904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939532864"/>
+        <c:axId val="-1945231360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4519,7 +4517,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4586,7 +4583,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939531232"/>
+        <c:crossAx val="-1945231904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4594,7 +4591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939531232"/>
+        <c:axId val="-1945231904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4640,7 +4637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4701,7 +4697,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939532864"/>
+        <c:crossAx val="-1945231360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4715,7 +4711,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4839,7 +4834,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5037,11 +5031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939530688"/>
-        <c:axId val="-1939545920"/>
+        <c:axId val="-1945230816"/>
+        <c:axId val="-1945229728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939530688"/>
+        <c:axId val="-1945230816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5077,7 +5071,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5144,7 +5137,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939545920"/>
+        <c:crossAx val="-1945229728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5152,7 +5145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939545920"/>
+        <c:axId val="-1945229728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5198,7 +5191,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5259,7 +5251,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939530688"/>
+        <c:crossAx val="-1945230816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5274,7 +5266,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5401,7 +5392,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5623,11 +5613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939545376"/>
-        <c:axId val="-1939541024"/>
+        <c:axId val="-1945244416"/>
+        <c:axId val="-1945232448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939545376"/>
+        <c:axId val="-1945244416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5663,7 +5653,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5730,7 +5719,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939541024"/>
+        <c:crossAx val="-1945232448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5738,7 +5727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939541024"/>
+        <c:axId val="-1945232448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,7 +5782,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5854,7 +5842,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939545376"/>
+        <c:crossAx val="-1945244416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5868,7 +5856,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5983,7 +5970,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6084,11 +6070,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1939538848"/>
-        <c:axId val="-1939537760"/>
+        <c:axId val="-1945241152"/>
+        <c:axId val="-1945240608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1939538848"/>
+        <c:axId val="-1945241152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6131,7 +6117,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939537760"/>
+        <c:crossAx val="-1945240608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6139,7 +6125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939537760"/>
+        <c:axId val="-1945240608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,7 +6171,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6246,7 +6231,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939538848"/>
+        <c:crossAx val="-1945241152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6347,7 +6332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6545,11 +6529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939536128"/>
-        <c:axId val="-1939533952"/>
+        <c:axId val="-1945232992"/>
+        <c:axId val="-1945238432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939536128"/>
+        <c:axId val="-1945232992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6585,7 +6569,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6652,7 +6635,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939533952"/>
+        <c:crossAx val="-1945238432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6660,7 +6643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939533952"/>
+        <c:axId val="-1945238432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6706,7 +6689,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6767,7 +6749,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939536128"/>
+        <c:crossAx val="-1945232992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6781,7 +6763,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6900,7 +6881,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7001,11 +6981,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-16469360"/>
-        <c:axId val="-16476976"/>
+        <c:axId val="-55089072"/>
+        <c:axId val="-55083632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-16469360"/>
+        <c:axId val="-55089072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7048,7 +7028,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16476976"/>
+        <c:crossAx val="-55083632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7056,7 +7036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16476976"/>
+        <c:axId val="-55083632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7114,7 +7094,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7175,7 +7154,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16469360"/>
+        <c:crossAx val="-55089072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7284,7 +7263,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7506,11 +7484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939086128"/>
-        <c:axId val="-1939082864"/>
+        <c:axId val="-1943839264"/>
+        <c:axId val="-1943835456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939086128"/>
+        <c:axId val="-1943839264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7546,7 +7524,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7613,7 +7590,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939082864"/>
+        <c:crossAx val="-1943835456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7621,7 +7598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939082864"/>
+        <c:axId val="-1943835456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7667,7 +7644,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7728,7 +7704,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939086128"/>
+        <c:crossAx val="-1943839264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7742,7 +7718,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7866,7 +7841,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8064,11 +8038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939071984"/>
-        <c:axId val="-1939083952"/>
+        <c:axId val="-1943840352"/>
+        <c:axId val="-1943848512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939071984"/>
+        <c:axId val="-1943840352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8104,7 +8078,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8171,7 +8144,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939083952"/>
+        <c:crossAx val="-1943848512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8179,7 +8152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939083952"/>
+        <c:axId val="-1943848512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8225,7 +8198,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8286,7 +8258,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939071984"/>
+        <c:crossAx val="-1943840352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8301,7 +8273,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8490,7 +8461,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8677,11 +8647,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1939077968"/>
-        <c:axId val="-1939085584"/>
+        <c:axId val="-1943843072"/>
+        <c:axId val="-1943841984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1939077968"/>
+        <c:axId val="-1943843072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8717,7 +8687,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8784,7 +8753,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939085584"/>
+        <c:crossAx val="-1943841984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8792,7 +8761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939085584"/>
+        <c:axId val="-1943841984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8851,7 +8820,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8912,7 +8880,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939077968"/>
+        <c:crossAx val="-1943843072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8926,7 +8894,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9045,7 +9012,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9267,11 +9233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939079056"/>
-        <c:axId val="-1939078512"/>
+        <c:axId val="-1943841440"/>
+        <c:axId val="-1943843616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939079056"/>
+        <c:axId val="-1943841440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9307,7 +9273,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9374,7 +9339,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939078512"/>
+        <c:crossAx val="-1943843616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9382,7 +9347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939078512"/>
+        <c:axId val="-1943843616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9437,7 +9402,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9498,7 +9462,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939079056"/>
+        <c:crossAx val="-1943841440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9512,7 +9476,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9627,7 +9590,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9728,11 +9690,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1939076880"/>
-        <c:axId val="-1939073072"/>
+        <c:axId val="-1943840896"/>
+        <c:axId val="-1943838720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1939076880"/>
+        <c:axId val="-1943840896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9775,7 +9737,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939073072"/>
+        <c:crossAx val="-1943838720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9783,7 +9745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939073072"/>
+        <c:axId val="-1943838720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9829,7 +9791,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9890,7 +9851,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939076880"/>
+        <c:crossAx val="-1943840896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9991,7 +9952,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10189,11 +10149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939082320"/>
-        <c:axId val="-1939075792"/>
+        <c:axId val="-1943847968"/>
+        <c:axId val="-1943838176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939082320"/>
+        <c:axId val="-1943847968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10229,7 +10189,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10296,7 +10255,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939075792"/>
+        <c:crossAx val="-1943838176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10304,7 +10263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939075792"/>
+        <c:axId val="-1943838176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10350,7 +10309,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10411,7 +10369,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939082320"/>
+        <c:crossAx val="-1943847968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10425,7 +10383,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10552,7 +10509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10774,11 +10730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939074160"/>
-        <c:axId val="-1939072528"/>
+        <c:axId val="-1943836000"/>
+        <c:axId val="-1943846880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939074160"/>
+        <c:axId val="-1943836000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10814,7 +10770,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10881,7 +10836,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939072528"/>
+        <c:crossAx val="-1943846880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10889,7 +10844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1939072528"/>
+        <c:axId val="-1943846880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10935,7 +10890,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10996,7 +10950,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939074160"/>
+        <c:crossAx val="-1943836000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11010,7 +10964,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11134,7 +11087,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11332,11 +11284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1939086672"/>
-        <c:axId val="-1937540112"/>
+        <c:axId val="-1943845248"/>
+        <c:axId val="-1942721376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1939086672"/>
+        <c:axId val="-1943845248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11372,7 +11324,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11439,7 +11390,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937540112"/>
+        <c:crossAx val="-1942721376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11447,7 +11398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1937540112"/>
+        <c:axId val="-1942721376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11493,7 +11444,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11554,7 +11504,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1939086672"/>
+        <c:crossAx val="-1943845248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11569,7 +11519,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11874,11 +11823,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1937546640"/>
-        <c:axId val="-1937546096"/>
+        <c:axId val="-1942724640"/>
+        <c:axId val="-1942719200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1937546640"/>
+        <c:axId val="-1942724640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11977,7 +11926,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937546096"/>
+        <c:crossAx val="-1942719200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11985,7 +11934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1937546096"/>
+        <c:axId val="-1942719200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12105,7 +12054,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937546640"/>
+        <c:crossAx val="-1942724640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12482,11 +12431,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1937554256"/>
-        <c:axId val="-1937554800"/>
+        <c:axId val="-1942731168"/>
+        <c:axId val="-1942732256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1937554256"/>
+        <c:axId val="-1942731168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12584,7 +12533,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937554800"/>
+        <c:crossAx val="-1942732256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12592,7 +12541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1937554800"/>
+        <c:axId val="-1942732256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12712,7 +12661,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937554256"/>
+        <c:crossAx val="-1942731168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12850,7 +12799,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13072,11 +13020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16476432"/>
-        <c:axId val="-16480784"/>
+        <c:axId val="-55083088"/>
+        <c:axId val="-55082000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16476432"/>
+        <c:axId val="-55083088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13112,7 +13060,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13179,7 +13126,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16480784"/>
+        <c:crossAx val="-55082000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13187,7 +13134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16480784"/>
+        <c:axId val="-55082000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13233,7 +13180,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13294,7 +13240,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16476432"/>
+        <c:crossAx val="-55083088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13308,7 +13254,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13671,11 +13616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1937555344"/>
-        <c:axId val="-1937553712"/>
+        <c:axId val="-1942725728"/>
+        <c:axId val="-1942724096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1937555344"/>
+        <c:axId val="-1942725728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13773,7 +13718,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937553712"/>
+        <c:crossAx val="-1942724096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13781,7 +13726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1937553712"/>
+        <c:axId val="-1942724096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13901,7 +13846,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937555344"/>
+        <c:crossAx val="-1942725728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14756,11 +14701,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1937540656"/>
-        <c:axId val="-1937550448"/>
+        <c:axId val="-1942723008"/>
+        <c:axId val="-1942721920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1937540656"/>
+        <c:axId val="-1942723008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14859,7 +14804,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937550448"/>
+        <c:crossAx val="-1942721920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14867,7 +14812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1937550448"/>
+        <c:axId val="-1942721920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14987,7 +14932,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1937540656"/>
+        <c:crossAx val="-1942723008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15418,11 +15363,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-67268000"/>
-        <c:axId val="-67262016"/>
+        <c:axId val="-1942726816"/>
+        <c:axId val="-1942730080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-67268000"/>
+        <c:axId val="-1942726816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15521,7 +15466,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-67262016"/>
+        <c:crossAx val="-1942730080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15529,7 +15474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-67262016"/>
+        <c:axId val="-1942730080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15649,7 +15594,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-67268000"/>
+        <c:crossAx val="-1942726816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16085,11 +16030,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1896721152"/>
-        <c:axId val="-1896715712"/>
+        <c:axId val="-1942719744"/>
+        <c:axId val="-1942733888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1896721152"/>
+        <c:axId val="-1942719744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16132,7 +16077,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1896715712"/>
+        <c:crossAx val="-1942733888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16140,7 +16085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1896715712"/>
+        <c:axId val="-1942733888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16191,7 +16136,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1896721152"/>
+        <c:crossAx val="-1942719744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16744,11 +16689,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1896717344"/>
-        <c:axId val="-1896729856"/>
+        <c:axId val="-1942726272"/>
+        <c:axId val="-1942732800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1896717344"/>
+        <c:axId val="-1942726272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16822,7 +16767,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1896729856"/>
+        <c:crossAx val="-1942732800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16830,7 +16775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1896729856"/>
+        <c:axId val="-1942732800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16950,7 +16895,673 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1896717344"/>
+        <c:crossAx val="-1942726272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>セグメント構成作成所要時間比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$B$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>オーケストレーション定義エディタ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$C$173:$G$173</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$C$174:$G$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>論文掲載用データ!$B$175</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>従来方式</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>論文掲載用データ!$C$173:$G$173</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>論文掲載用データ!$C$175:$G$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1885943760"/>
+        <c:axId val="-1885934512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1885943760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>被験者</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1885934512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1885934512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>作成所要時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1885943760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17088,7 +17699,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17286,11 +17896,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16474800"/>
-        <c:axId val="-16474256"/>
+        <c:axId val="-55088528"/>
+        <c:axId val="-55087984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16474800"/>
+        <c:axId val="-55088528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17326,7 +17936,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17393,7 +18002,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16474256"/>
+        <c:crossAx val="-55087984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17401,7 +18010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-16474256"/>
+        <c:axId val="-55087984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17460,7 +18069,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17521,7 +18129,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16474800"/>
+        <c:crossAx val="-55088528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17535,7 +18143,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17654,7 +18261,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17852,11 +18458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-16470992"/>
-        <c:axId val="-67259840"/>
+        <c:axId val="-55101600"/>
+        <c:axId val="-55333328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-16470992"/>
+        <c:axId val="-55101600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17892,7 +18498,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17959,7 +18564,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-67259840"/>
+        <c:crossAx val="-55333328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17967,7 +18572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-67259840"/>
+        <c:axId val="-55333328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18013,7 +18618,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18074,7 +18678,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-16470992"/>
+        <c:crossAx val="-55101600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -18089,7 +18693,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18221,7 +18824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18378,11 +18980,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1941010208"/>
-        <c:axId val="-1941016192"/>
+        <c:axId val="-1945447968"/>
+        <c:axId val="-1945447424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1941010208"/>
+        <c:axId val="-1945447968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18418,7 +19020,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18485,7 +19086,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941016192"/>
+        <c:crossAx val="-1945447424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18493,7 +19094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941016192"/>
+        <c:axId val="-1945447424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18552,7 +19153,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18613,7 +19213,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941010208"/>
+        <c:crossAx val="-1945447968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18627,7 +19227,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18746,7 +19345,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18968,11 +19566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1941017280"/>
-        <c:axId val="-1941016736"/>
+        <c:axId val="-1945446336"/>
+        <c:axId val="-1945452864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1941017280"/>
+        <c:axId val="-1945446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19009,7 +19607,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19076,7 +19673,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941016736"/>
+        <c:crossAx val="-1945452864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19084,7 +19681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941016736"/>
+        <c:axId val="-1945452864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19139,7 +19736,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19200,7 +19796,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941017280"/>
+        <c:crossAx val="-1945446336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19214,7 +19810,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19329,7 +19924,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19430,11 +20024,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1941015104"/>
-        <c:axId val="-1941023264"/>
+        <c:axId val="-1945446880"/>
+        <c:axId val="-1945449056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1941015104"/>
+        <c:axId val="-1945446880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19477,7 +20071,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941023264"/>
+        <c:crossAx val="-1945449056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19485,7 +20079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941023264"/>
+        <c:axId val="-1945449056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19531,7 +20125,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19592,7 +20185,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941015104"/>
+        <c:crossAx val="-1945446880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19693,7 +20286,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19891,11 +20483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1941014560"/>
-        <c:axId val="-1941010752"/>
+        <c:axId val="-1945444704"/>
+        <c:axId val="-1945448512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1941014560"/>
+        <c:axId val="-1945444704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19931,7 +20523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19998,7 +20589,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941010752"/>
+        <c:crossAx val="-1945448512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20006,7 +20597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1941010752"/>
+        <c:axId val="-1945448512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20052,7 +20643,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20113,7 +20703,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1941014560"/>
+        <c:crossAx val="-1945444704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20127,7 +20717,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21314,6 +21903,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors35.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -35162,6 +35791,509 @@
 </file>
 
 <file path=xl/charts/style34.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style35.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -39759,6 +40891,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="グラフ 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -41444,10 +42606,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I72" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView tabSelected="1" topLeftCell="E157" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -43113,6 +44275,66 @@
         <v>1191</v>
       </c>
     </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B173" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B174" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C174" s="1">
+        <v>160</v>
+      </c>
+      <c r="D174" s="1">
+        <v>160</v>
+      </c>
+      <c r="E174" s="1">
+        <v>162</v>
+      </c>
+      <c r="F174" s="1">
+        <v>145</v>
+      </c>
+      <c r="G174" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B175" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C175" s="1">
+        <v>660</v>
+      </c>
+      <c r="D175" s="1">
+        <v>730</v>
+      </c>
+      <c r="E175" s="1">
+        <v>2990</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1946</v>
+      </c>
+      <c r="G175" s="1">
+        <v>1191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/卒業研究評価実験結果データ.xlsx
+++ b/卒業研究評価実験結果データ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\貴大\Documents\構成マップ見た目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\貴大\Documents\GUIToolCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="別役データ" sheetId="1" r:id="rId1"/>
@@ -1037,6 +1037,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1258,11 +1259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-55082544"/>
-        <c:axId val="-55090160"/>
+        <c:axId val="1724593152"/>
+        <c:axId val="1724599680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-55082544"/>
+        <c:axId val="1724593152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,6 +1299,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1364,7 +1366,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55090160"/>
+        <c:crossAx val="1724599680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +1374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-55090160"/>
+        <c:axId val="1724599680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,6 +1433,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1491,7 +1494,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55082544"/>
+        <c:crossAx val="1724593152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,6 +1508,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1631,6 +1635,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1852,11 +1857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945438720"/>
-        <c:axId val="-1945441984"/>
+        <c:axId val="1904757232"/>
+        <c:axId val="1904744720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945438720"/>
+        <c:axId val="1904757232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,6 +1897,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1958,7 +1964,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945441984"/>
+        <c:crossAx val="1904744720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1966,7 +1972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945441984"/>
+        <c:axId val="1904744720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,6 +2018,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2072,7 +2079,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945438720"/>
+        <c:crossAx val="1904757232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2086,6 +2093,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2209,6 +2217,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2406,11 +2415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945442528"/>
-        <c:axId val="-1945450144"/>
+        <c:axId val="1904586784"/>
+        <c:axId val="1904590048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945442528"/>
+        <c:axId val="1904586784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,6 +2455,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2512,7 +2522,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945450144"/>
+        <c:crossAx val="1904590048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2520,7 +2530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945450144"/>
+        <c:axId val="1904590048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,6 +2576,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2626,7 +2637,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945442528"/>
+        <c:crossAx val="1904586784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2641,6 +2652,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2759,6 +2771,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2980,11 +2993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945440896"/>
-        <c:axId val="-1945440352"/>
+        <c:axId val="1904580800"/>
+        <c:axId val="1904578624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945440896"/>
+        <c:axId val="1904580800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,6 +3033,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3086,7 +3100,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945440352"/>
+        <c:crossAx val="1904578624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3094,7 +3108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945440352"/>
+        <c:axId val="1904578624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,6 +3163,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3209,7 +3224,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945440896"/>
+        <c:crossAx val="1904580800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3223,6 +3238,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3337,6 +3353,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3437,11 +3454,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1945243872"/>
-        <c:axId val="-1945234624"/>
+        <c:axId val="1904582976"/>
+        <c:axId val="1904581888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1945243872"/>
+        <c:axId val="1904582976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3501,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945234624"/>
+        <c:crossAx val="1904581888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3492,7 +3509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945234624"/>
+        <c:axId val="1904581888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3538,6 +3555,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3598,7 +3616,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945243872"/>
+        <c:crossAx val="1904582976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3699,6 +3717,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3896,11 +3915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945236800"/>
-        <c:axId val="-1945242240"/>
+        <c:axId val="1904585152"/>
+        <c:axId val="1904581344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945236800"/>
+        <c:axId val="1904585152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,6 +3955,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4002,7 +4022,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945242240"/>
+        <c:crossAx val="1904581344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4010,7 +4030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945242240"/>
+        <c:axId val="1904581344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,6 +4076,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4116,7 +4137,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945236800"/>
+        <c:crossAx val="1904585152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4130,6 +4151,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4256,6 +4278,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4477,11 +4500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945231360"/>
-        <c:axId val="-1945231904"/>
+        <c:axId val="1904583520"/>
+        <c:axId val="1904590592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945231360"/>
+        <c:axId val="1904583520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,6 +4540,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4583,7 +4607,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945231904"/>
+        <c:crossAx val="1904590592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4591,7 +4615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945231904"/>
+        <c:axId val="1904590592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,6 +4661,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4697,7 +4722,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945231360"/>
+        <c:crossAx val="1904583520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4711,6 +4736,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4834,6 +4860,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5031,11 +5058,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945230816"/>
-        <c:axId val="-1945229728"/>
+        <c:axId val="1904591136"/>
+        <c:axId val="1904591680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945230816"/>
+        <c:axId val="1904591136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5071,6 +5098,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5137,7 +5165,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945229728"/>
+        <c:crossAx val="1904591680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5145,7 +5173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945229728"/>
+        <c:axId val="1904591680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5191,6 +5219,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5251,7 +5280,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945230816"/>
+        <c:crossAx val="1904591136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -5266,6 +5295,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5392,6 +5422,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5613,11 +5644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945244416"/>
-        <c:axId val="-1945232448"/>
+        <c:axId val="1904593312"/>
+        <c:axId val="1904579168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945244416"/>
+        <c:axId val="1904593312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5653,6 +5684,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5719,7 +5751,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945232448"/>
+        <c:crossAx val="1904579168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5727,7 +5759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945232448"/>
+        <c:axId val="1904579168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5782,6 +5814,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5842,7 +5875,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945244416"/>
+        <c:crossAx val="1904593312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5856,6 +5889,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5970,6 +6004,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6070,11 +6105,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1945241152"/>
-        <c:axId val="-1945240608"/>
+        <c:axId val="1904584608"/>
+        <c:axId val="1905949872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1945241152"/>
+        <c:axId val="1904584608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6117,7 +6152,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945240608"/>
+        <c:crossAx val="1905949872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6125,7 +6160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945240608"/>
+        <c:axId val="1905949872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6171,6 +6206,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6231,7 +6267,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945241152"/>
+        <c:crossAx val="1904584608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6332,6 +6368,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6529,11 +6566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945232992"/>
-        <c:axId val="-1945238432"/>
+        <c:axId val="1905952048"/>
+        <c:axId val="1905946608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945232992"/>
+        <c:axId val="1905952048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6569,6 +6606,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6635,7 +6673,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945238432"/>
+        <c:crossAx val="1905946608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6643,7 +6681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945238432"/>
+        <c:axId val="1905946608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6689,6 +6727,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6749,7 +6788,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945232992"/>
+        <c:crossAx val="1905952048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6763,6 +6802,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6881,6 +6921,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6981,11 +7022,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-55089072"/>
-        <c:axId val="-55083632"/>
+        <c:axId val="1724591520"/>
+        <c:axId val="1724599136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-55089072"/>
+        <c:axId val="1724591520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7028,7 +7069,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55083632"/>
+        <c:crossAx val="1724599136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7036,7 +7077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-55083632"/>
+        <c:axId val="1724599136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7094,6 +7135,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7154,7 +7196,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55089072"/>
+        <c:crossAx val="1724591520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7263,6 +7305,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7484,11 +7527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1943839264"/>
-        <c:axId val="-1943835456"/>
+        <c:axId val="1905952592"/>
+        <c:axId val="1905953136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943839264"/>
+        <c:axId val="1905952592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7524,6 +7567,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7590,7 +7634,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943835456"/>
+        <c:crossAx val="1905953136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7598,7 +7642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943835456"/>
+        <c:axId val="1905953136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7644,6 +7688,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7704,7 +7749,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943839264"/>
+        <c:crossAx val="1905952592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7718,6 +7763,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7841,6 +7887,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8038,11 +8085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1943840352"/>
-        <c:axId val="-1943848512"/>
+        <c:axId val="1905947696"/>
+        <c:axId val="1905948240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943840352"/>
+        <c:axId val="1905947696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8078,6 +8125,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8144,7 +8192,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943848512"/>
+        <c:crossAx val="1905948240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8152,7 +8200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943848512"/>
+        <c:axId val="1905948240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8198,6 +8246,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8258,7 +8307,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943840352"/>
+        <c:crossAx val="1905947696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -8273,6 +8322,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8461,6 +8511,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8647,11 +8698,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1943843072"/>
-        <c:axId val="-1943841984"/>
+        <c:axId val="1906330944"/>
+        <c:axId val="1906333120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1943843072"/>
+        <c:axId val="1906330944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8687,6 +8738,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8753,7 +8805,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943841984"/>
+        <c:crossAx val="1906333120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8761,7 +8813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943841984"/>
+        <c:axId val="1906333120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8820,6 +8872,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8880,7 +8933,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943843072"/>
+        <c:crossAx val="1906330944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8894,6 +8947,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9012,6 +9066,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9233,11 +9288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1943841440"/>
-        <c:axId val="-1943843616"/>
+        <c:axId val="1906328224"/>
+        <c:axId val="1906334208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943841440"/>
+        <c:axId val="1906328224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9273,6 +9328,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9339,7 +9395,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943843616"/>
+        <c:crossAx val="1906334208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9347,7 +9403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943843616"/>
+        <c:axId val="1906334208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9402,6 +9458,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9462,7 +9519,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943841440"/>
+        <c:crossAx val="1906328224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9476,6 +9533,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9590,6 +9648,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9690,11 +9749,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1943840896"/>
-        <c:axId val="-1943838720"/>
+        <c:axId val="1906328768"/>
+        <c:axId val="1906331488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1943840896"/>
+        <c:axId val="1906328768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9737,7 +9796,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943838720"/>
+        <c:crossAx val="1906331488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9745,7 +9804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943838720"/>
+        <c:axId val="1906331488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9791,6 +9850,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9851,7 +9911,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943840896"/>
+        <c:crossAx val="1906328768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9952,6 +10012,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10149,11 +10210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1943847968"/>
-        <c:axId val="-1943838176"/>
+        <c:axId val="1906330400"/>
+        <c:axId val="1907122848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943847968"/>
+        <c:axId val="1906330400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10189,6 +10250,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10255,7 +10317,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943838176"/>
+        <c:crossAx val="1907122848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10263,7 +10325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943838176"/>
+        <c:axId val="1907122848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10309,6 +10371,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10369,7 +10432,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943847968"/>
+        <c:crossAx val="1906330400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10383,6 +10446,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10509,6 +10573,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10730,11 +10795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1943836000"/>
-        <c:axId val="-1943846880"/>
+        <c:axId val="1907124480"/>
+        <c:axId val="1907123392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943836000"/>
+        <c:axId val="1907124480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10770,6 +10835,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10836,7 +10902,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943846880"/>
+        <c:crossAx val="1907123392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10844,7 +10910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1943846880"/>
+        <c:axId val="1907123392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10890,6 +10956,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10950,7 +11017,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943836000"/>
+        <c:crossAx val="1907124480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10964,6 +11031,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11087,6 +11155,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11284,11 +11353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1943845248"/>
-        <c:axId val="-1942721376"/>
+        <c:axId val="1907125568"/>
+        <c:axId val="1907126112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1943845248"/>
+        <c:axId val="1907125568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11324,6 +11393,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11390,7 +11460,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942721376"/>
+        <c:crossAx val="1907126112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11398,7 +11468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942721376"/>
+        <c:axId val="1907126112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11444,6 +11514,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11504,7 +11575,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1943845248"/>
+        <c:crossAx val="1907125568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -11519,6 +11590,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11625,7 +11697,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11823,11 +11894,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1942724640"/>
-        <c:axId val="-1942719200"/>
+        <c:axId val="1907128288"/>
+        <c:axId val="1907128832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1942724640"/>
+        <c:axId val="1907128288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11859,7 +11930,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11926,7 +11996,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942719200"/>
+        <c:crossAx val="1907128832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11934,7 +12004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942719200"/>
+        <c:axId val="1907128832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11993,7 +12063,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12054,7 +12123,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942724640"/>
+        <c:crossAx val="1907128288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12068,7 +12137,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12431,11 +12499,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1942731168"/>
-        <c:axId val="-1942732256"/>
+        <c:axId val="1907067760"/>
+        <c:axId val="1907070480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1942731168"/>
+        <c:axId val="1907067760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12533,7 +12601,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942732256"/>
+        <c:crossAx val="1907070480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12541,7 +12609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942732256"/>
+        <c:axId val="1907070480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12661,7 +12729,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942731168"/>
+        <c:crossAx val="1907067760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12799,6 +12867,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13020,11 +13089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-55083088"/>
-        <c:axId val="-55082000"/>
+        <c:axId val="1724590976"/>
+        <c:axId val="1724592064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-55083088"/>
+        <c:axId val="1724590976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13060,6 +13129,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13126,7 +13196,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55082000"/>
+        <c:crossAx val="1724592064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13134,7 +13204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-55082000"/>
+        <c:axId val="1724592064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13180,6 +13250,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13240,7 +13311,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55083088"/>
+        <c:crossAx val="1724590976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13254,6 +13325,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13616,11 +13688,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1942725728"/>
-        <c:axId val="-1942724096"/>
+        <c:axId val="1907068848"/>
+        <c:axId val="1907069936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1942725728"/>
+        <c:axId val="1907068848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13718,7 +13790,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942724096"/>
+        <c:crossAx val="1907069936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13726,7 +13798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942724096"/>
+        <c:axId val="1907069936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13846,7 +13918,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942725728"/>
+        <c:crossAx val="1907068848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14701,11 +14773,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1942723008"/>
-        <c:axId val="-1942721920"/>
+        <c:axId val="1907073200"/>
+        <c:axId val="1907071024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1942723008"/>
+        <c:axId val="1907073200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14804,7 +14876,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942721920"/>
+        <c:crossAx val="1907071024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14812,7 +14884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942721920"/>
+        <c:axId val="1907071024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14932,7 +15004,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942723008"/>
+        <c:crossAx val="1907073200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15363,11 +15435,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1942726816"/>
-        <c:axId val="-1942730080"/>
+        <c:axId val="1907066128"/>
+        <c:axId val="1945744864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1942726816"/>
+        <c:axId val="1907066128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15466,7 +15538,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942730080"/>
+        <c:crossAx val="1945744864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15474,7 +15546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942730080"/>
+        <c:axId val="1945744864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15594,7 +15666,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942726816"/>
+        <c:crossAx val="1907066128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16030,11 +16102,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1942719744"/>
-        <c:axId val="-1942733888"/>
+        <c:axId val="1945740512"/>
+        <c:axId val="1945745952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1942719744"/>
+        <c:axId val="1945740512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16077,7 +16149,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942733888"/>
+        <c:crossAx val="1945745952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16085,7 +16157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942733888"/>
+        <c:axId val="1945745952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16136,7 +16208,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942719744"/>
+        <c:crossAx val="1945740512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16689,11 +16761,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1942726272"/>
-        <c:axId val="-1942732800"/>
+        <c:axId val="1945741056"/>
+        <c:axId val="1945744320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1942726272"/>
+        <c:axId val="1945741056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16767,7 +16839,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942732800"/>
+        <c:crossAx val="1945744320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16775,7 +16847,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1942732800"/>
+        <c:axId val="1945744320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16895,7 +16967,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1942726272"/>
+        <c:crossAx val="1945741056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17330,11 +17402,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1885943760"/>
-        <c:axId val="-1885934512"/>
+        <c:axId val="1945742688"/>
+        <c:axId val="1945745408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1885943760"/>
+        <c:axId val="1945742688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17433,7 +17505,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1885934512"/>
+        <c:crossAx val="1945745408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17441,7 +17513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1885934512"/>
+        <c:axId val="1945745408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17561,7 +17633,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1885943760"/>
+        <c:crossAx val="1945742688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17699,6 +17771,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17896,11 +17969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-55088528"/>
-        <c:axId val="-55087984"/>
+        <c:axId val="1904756144"/>
+        <c:axId val="1904749616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-55088528"/>
+        <c:axId val="1904756144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17936,6 +18009,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18002,7 +18076,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55087984"/>
+        <c:crossAx val="1904749616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18010,7 +18084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-55087984"/>
+        <c:axId val="1904749616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18069,6 +18143,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18129,7 +18204,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55088528"/>
+        <c:crossAx val="1904756144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18143,6 +18218,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18261,6 +18337,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18458,11 +18535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-55101600"/>
-        <c:axId val="-55333328"/>
+        <c:axId val="1904752336"/>
+        <c:axId val="1904750160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-55101600"/>
+        <c:axId val="1904752336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18498,6 +18575,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18564,7 +18642,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55333328"/>
+        <c:crossAx val="1904750160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18572,7 +18650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-55333328"/>
+        <c:axId val="1904750160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18618,6 +18696,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18678,7 +18757,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55101600"/>
+        <c:crossAx val="1904752336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -18693,6 +18772,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18824,6 +18904,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18980,11 +19061,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1945447968"/>
-        <c:axId val="-1945447424"/>
+        <c:axId val="1904746896"/>
+        <c:axId val="1904743088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1945447968"/>
+        <c:axId val="1904746896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19020,6 +19101,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19086,7 +19168,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945447424"/>
+        <c:crossAx val="1904743088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19094,7 +19176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945447424"/>
+        <c:axId val="1904743088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19153,6 +19235,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19213,7 +19296,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945447968"/>
+        <c:crossAx val="1904746896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19227,6 +19310,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19345,6 +19429,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19566,11 +19651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945446336"/>
-        <c:axId val="-1945452864"/>
+        <c:axId val="1904755600"/>
+        <c:axId val="1904751792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945446336"/>
+        <c:axId val="1904755600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19607,6 +19692,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19673,7 +19759,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945452864"/>
+        <c:crossAx val="1904751792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19681,7 +19767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945452864"/>
+        <c:axId val="1904751792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19736,6 +19822,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19796,7 +19883,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945446336"/>
+        <c:crossAx val="1904755600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19810,6 +19897,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19924,6 +20012,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20024,11 +20113,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1945446880"/>
-        <c:axId val="-1945449056"/>
+        <c:axId val="1904746352"/>
+        <c:axId val="1904753424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1945446880"/>
+        <c:axId val="1904746352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20071,7 +20160,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945449056"/>
+        <c:crossAx val="1904753424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20079,7 +20168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945449056"/>
+        <c:axId val="1904753424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20125,6 +20214,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20185,7 +20275,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945446880"/>
+        <c:crossAx val="1904746352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20286,6 +20376,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20483,11 +20574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1945444704"/>
-        <c:axId val="-1945448512"/>
+        <c:axId val="1904756688"/>
+        <c:axId val="1904754512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1945444704"/>
+        <c:axId val="1904756688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20523,6 +20614,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20589,7 +20681,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945448512"/>
+        <c:crossAx val="1904754512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20597,7 +20689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1945448512"/>
+        <c:axId val="1904754512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20643,6 +20735,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20703,7 +20796,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1945444704"/>
+        <c:crossAx val="1904756688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20717,6 +20810,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -41189,8 +41283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -41485,8 +41579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -41755,7 +41849,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M5"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -42046,7 +42140,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -42608,8 +42702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E157" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView topLeftCell="E70" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
